--- a/transforms.xlsx
+++ b/transforms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW10"/>
+  <dimension ref="A1:IS10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,89 +481,89 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>pct_chg_forward_quarterly</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>pct_chg_forward_monthly</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>pct_chg_forward_weekly</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pct_change_lastweek</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MA_200</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA_100</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA_50</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MA_5</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>pct_of_200</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>pct_of_100</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pct_of_50</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MA_50_by_200</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MA_5_by_50</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>golden_cross</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>death_cross</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>golden_cross_st</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>death_cross_st</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>pct_chg_forward_quarterly</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Rev_growth_backward</t>
@@ -621,17 +621,17 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>EV/EBITDA</t>
+          <t>EBITDA_by_EV</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>EV/EBIT</t>
+          <t>EBIT_by_EV</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>EV/NI</t>
+          <t>NI_by_EV</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
@@ -656,27 +656,27 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Debt_by_EBITDA</t>
+          <t>EBITDA_by_Debt</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Debt_by_EBIT</t>
+          <t>EBIT_by_Debt</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Debt_by_NI</t>
+          <t>NI_by_Debt</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Debt_by_Rev</t>
+          <t>Rev_by_Debt</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Debt_by_Assets</t>
+          <t>Assets_by_Debt</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
@@ -701,32 +701,32 @@
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>P/E</t>
+          <t>NI_by_Price</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>P/EBIT</t>
+          <t>EBIT_by_Price</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>P/EBITDA</t>
+          <t>EBITDA_by_Price</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>P/Rev</t>
+          <t>Rev_by_Price</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>P/Assets</t>
+          <t>Assets_by_Price</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>P/CFO</t>
+          <t>CFO_by_Price</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
@@ -751,835 +751,945 @@
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>treasury_yield</t>
+          <t>treasury_yield_1mo</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>treasury_yield_diff_daily</t>
+          <t>treasury_yield_1mo_diff_daily</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>treasury_yield_diff_monthly</t>
+          <t>treasury_yield_1mo_diff_monthly</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>treasury_yield_diff_quarterly</t>
+          <t>treasury_yield_1mo_diff_quarterly</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
+          <t>treasury_yield_3mo</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_yield_3mo_diff_daily</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_yield_3mo_diff_monthly</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_yield_3mo_diff_quarterly</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_yield_10yr</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_yield_10yr_diff_daily</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_yield_10yr_diff_monthly</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_yield_10yr_diff_quarterly</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
           <t>wti_crude_price</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>wti_crude_price_pctdiff_daily</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>wti_crude_price_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>wti_crude_price_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>commodity_index</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>commodity_index_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>commodity_index_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>real_gdp</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>real_gdp_pctdiff_quarterly</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>fed_funds_rate</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>fed_funds_rate_diff_daily</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>fed_funds_rate_diff_monthly</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>fed_funds_rate_diff_quarterly</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>cpi</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>cpi_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>cpi_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>retail_sales</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>retail_sales_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>retail_sales_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>durable_goods_orders</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>durable_goods_orders_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>durable_goods_orders_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>unemployment</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>unemployment_diff_monthly</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>unemployment_diff_quarterly</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>nonfarm_payroll</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>nonfarm_payroll_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>nonfarm_payroll_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>yield_curve_spread</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>consumer_sentiment</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>consumer_sentiment_diff_monthly</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>consumer_sentiment_diff_quarterly</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>consumer_sentiment_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>consumer_sentiment_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>m2_money_supply</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>m2_money_supply_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>m2_money_supply_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>m2_money_supply_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>adp_private_payrolls</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>adp_private_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>adp_private_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>adp_private_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>adp_manufacturing_payrolls</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>adp_manufacturing_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>adp_manufacturing_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>adp_manufacturing_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>adp_construction_payrolls</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>adp_construction_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>adp_construction_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>adp_construction_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>adp_information_payrolls</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>adp_information_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>adp_information_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>adp_information_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>adp_hospitality_payrolls</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>adp_hospitality_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>adp_hospitality_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>adp_hospitality_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>adp_profservices_payrolls</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>adp_profservices_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>adp_profservices_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>adp_profservices_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>adp_ed_health_payrolls</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>adp_ed_health_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>adp_ed_health_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>adp_ed_health_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>adp_smallbiz_payrolls</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>adp_smallbiz_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>adp_smallbiz_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>adp_smallbiz_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>adp_largebiz_payrolls</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>adp_largebiz_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>adp_largebiz_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>adp_largebiz_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>adp_medlargebiz_payrolls</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>adp_medlargebiz_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>adp_medlargebiz_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>adp_medlargebiz_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>adp_trade_transport_payrolls</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>adp_trade_transport_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>adp_trade_transport_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>adp_trade_transport_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>adp_financial_payrolls</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>adp_financial_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>adp_financial_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>adp_financial_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>adp_mining_payrolls</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>adp_mining_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>adp_mining_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>adp_mining_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>adp_otherservices_payrolls</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>adp_otherservices_payrolls_pctdiff_weekly</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>adp_otherservices_payrolls_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>adp_otherservices_payrolls_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>pce</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>pce_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>pce_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>pce_goods</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>pce_goods_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>pce_goods_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>pce_durablegoods</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>pce_durablegoods_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>pce_durablegoods_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>pce_services</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>pce_services_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>pce_services_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>pce_nondurablegoods</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>pce_nondurablegoods_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>pce_nondurablegoods_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>usdollar_index</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>usdollar_index_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>usdollar_index_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>credit_card_interest_rate</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>credit_card_interest_rate_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>credit_card_interest_rate_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>credit_card_delinquency</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>credit_card_delinquency_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>consumer_loan_delinquency</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>consumer_loan_delinquency_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>business_loan_delinquency</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>business_loan_delinquency_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>home_price</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>home_price_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>home_price_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_yield</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_yield_diff_daily</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_yield_diff_monthly</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_yield_diff_quarterly</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_yield_pctdiff_daily</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_yield_pctdiff_monthly</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_yield_pctdiff_quarterly</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_oas_spread</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_oas_spread_diff_daily</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_oas_spread_diff_monthly</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_oas_spread_diff_quarterly</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_oas_spread_pctdiff_daily</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_oas_spread_pctdiff_monthly</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>ig_bond_oas_spread_pctdiff_quarterly</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_yield</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_yield_diff_daily</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_yield_diff_monthly</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_yield_diff_quarterly</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_yield_pctdiff_daily</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_yield_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_yield_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_oas_spread</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_oas_spread_diff_daily</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_oas_spread_diff_monthly</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_oas_spread_diff_quarterly</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_oas_spread_pctdiff_daily</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_oas_spread_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>junk_bond_oas_spread_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>junk_bond_credit_spread</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>retailer_inventories_by_sales</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>retailer_inventories_by_sales_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>retailer_inventories_by_sales_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>vehicle_sales</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>vehicle_sales_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>vehicle_sales_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>car_inventories_by_sales</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>car_inventories_by_sales_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>car_inventories_by_sales_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>heavy_weight_truck_sales</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>heavy_weight_truck_sales_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>heavy_weight_truck_sales_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>light_vehicle_sales</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>light_vehicle_sales_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>light_vehicle_sales_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>ppi_total</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>ppi_total_pctdiff_monthly</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>ppi_total_pctdiff_quarterly</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>sector_energy_and_transportation</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>sector_finance</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>sector_industrial_applications_and_services</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>sector_life_sciences</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>sector_manufacturing</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>sector_real_estate_and_construction</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>sector_technology</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>sector_trade_and_services</t>
         </is>
@@ -1592,669 +1702,733 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.439964977789049e-241</v>
+        <v>1.118118217429911e-237</v>
       </c>
       <c r="C2" t="n">
-        <v>2.556569993823751e-243</v>
+        <v>6.425841982195777e-239</v>
       </c>
       <c r="D2" t="n">
-        <v>8.506219986941861e-244</v>
+        <v>4.421877895752661e-242</v>
       </c>
       <c r="E2" t="n">
-        <v>5.074610463717686e-240</v>
+        <v>2.706713619378281e-241</v>
       </c>
       <c r="F2" t="n">
-        <v>1.087986272232353e-238</v>
+        <v>4.964777741764525e-239</v>
       </c>
       <c r="G2" t="n">
-        <v>2.961249766164844e-242</v>
+        <v>7.78565802227171e-243</v>
       </c>
       <c r="H2" t="n">
-        <v>4.932138738950466e-243</v>
+        <v>2.934261372452493e-243</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86783545724893e-247</v>
+        <v>5.232080295954109e-247</v>
       </c>
       <c r="J2" t="n">
-        <v>2.918462019970801e-247</v>
+        <v>5.346051481506371e-247</v>
       </c>
       <c r="K2" t="n">
-        <v>2.630396730988548e-247</v>
+        <v>2.625258395715503e-247</v>
       </c>
       <c r="L2" t="n">
-        <v>2.624868688446018e-247</v>
+        <v>3.968188531428106e-247</v>
       </c>
       <c r="M2" t="n">
-        <v>2.624870775698095e-247</v>
+        <v>4.580400035663133e-247</v>
       </c>
       <c r="N2" t="n">
-        <v>2.933473897940834e-247</v>
+        <v>4.706358299297899e-247</v>
       </c>
       <c r="O2" t="n">
-        <v>2.911137011832759e-247</v>
+        <v>1.97463041369881e-247</v>
       </c>
       <c r="P2" t="n">
-        <v>2.892389587723694e-247</v>
+        <v>3.329032870179506e-247</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.8706289406451e-247</v>
+        <v>4.271398128571576e-247</v>
       </c>
       <c r="R2" t="n">
-        <v>2.916018755213484e-212</v>
+        <v>5.155652266040799e-247</v>
       </c>
       <c r="S2" t="n">
-        <v>6.514463544626329e-206</v>
+        <v>1.252952125267296e-213</v>
       </c>
       <c r="T2" t="n">
-        <v>1.570254333334346e-204</v>
+        <v>3.031696752749698e-208</v>
       </c>
       <c r="U2" t="n">
-        <v>2.956205223517618e-160</v>
+        <v>2.393269323507992e-208</v>
       </c>
       <c r="V2" t="n">
-        <v>1.569065955413354e-188</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+        <v>5.667699156748374e-158</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.200228696404754e-190</v>
+      </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>2.625258395715503e-247</v>
-      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>2.926891072096686e-247</v>
+        <v>5.373240719216043e-247</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>6.900608366257117e-231</v>
+        <v>4.520553402362563e-234</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.060331421110098e-176</v>
+        <v>1.553752313514253e-191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.527823838797662e-245</v>
+        <v>2.659079429013322e-246</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.950161801191589e-245</v>
+        <v>2.882532380570538e-246</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.489503835125377e-245</v>
+        <v>2.491320577839172e-246</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.17955365372283e-245</v>
+        <v>1.025499058216869e-245</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.491157042140412e-245</v>
+        <v>1.946321514604214e-246</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.891996002239891e-245</v>
+        <v>1.985130298432659e-245</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.901597251791445e-247</v>
+        <v>3.078614047419183e-248</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.144682766632247e-235</v>
+        <v>6.515097105108313e-247</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.690723543919666e-239</v>
+        <v>2.439421617272611e-246</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.327061381535768e-247</v>
+        <v>7.698357244677057e-246</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.496654128683916e-241</v>
+        <v>1.532460573951032e-248</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.332524962067084e-241</v>
+        <v>9.501471931089417e-249</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.798762284591283e-242</v>
+        <v>1.17740519555229e-248</v>
       </c>
       <c r="AS2" t="n">
-        <v>9.421172922197582e-242</v>
+        <v>4.21665610692332e-248</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.900303498188682e-247</v>
+        <v>3.799233895776338e-245</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.186367550627304e-247</v>
+        <v>4.035807945158372e-245</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.223894792580323e-247</v>
+        <v>1.607981511147046e-244</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.525740092468651e-244</v>
+        <v>7.847678682797923e-247</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.816219261776891e-247</v>
+        <v>1.737169625199292e-246</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.035352918394143e-247</v>
+        <v>1.001783873024083e-248</v>
       </c>
       <c r="AZ2" t="n">
-        <v>2.936395004869308e-247</v>
+        <v>4.496233914820338e-249</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.95836413208059e-247</v>
+        <v>5.880129976543586e-249</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.867071352502544e-247</v>
+        <v>1.035918022212127e-248</v>
       </c>
       <c r="BC2" t="n">
-        <v>6.720048471734674e-247</v>
+        <v>2.614961070336284e-246</v>
       </c>
       <c r="BD2" t="n">
-        <v>6.335393869462581e-247</v>
+        <v>1.271604915912779e-246</v>
       </c>
       <c r="BE2" t="n">
-        <v>2.999903694104096e-247</v>
+        <v>2.271950674955584e-246</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.660060193347025e-241</v>
+        <v>1.860386314190429e-246</v>
       </c>
       <c r="BG2" t="n">
-        <v>3.098616525003631e-247</v>
+        <v>1.894179925118584e-245</v>
       </c>
       <c r="BH2" t="n">
-        <v>3.519956591945989e-247</v>
+        <v>1.313163192863684e-245</v>
       </c>
       <c r="BI2" t="n">
-        <v>5.010468783124695e-244</v>
+        <v>2.178687732187613e-245</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.707471313991669e-246</v>
+        <v>6.732494517635101e-248</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.768666215298113e-245</v>
+        <v>1.642742635252352e-246</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.859904999849355e-247</v>
+        <v>3.525943896170364e-248</v>
       </c>
       <c r="BM2" t="n">
-        <v>8.737208227083862e-122</v>
+        <v>2.252019847929814e-125</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.402205737115378e-114</v>
+        <v>2.977528375402662e-113</v>
       </c>
       <c r="BO2" t="n">
-        <v>9.438078650680565e-100</v>
+        <v>1.050292103471164e-100</v>
       </c>
       <c r="BP2" t="n">
-        <v>3.078243414408168e-71</v>
+        <v>1.217424272737461e-74</v>
       </c>
       <c r="BQ2" t="n">
-        <v>4.005393424886061e-92</v>
+        <v>2.252019847929814e-125</v>
       </c>
       <c r="BR2" t="n">
-        <v>9.761166368187368e-237</v>
+        <v>2.977528375402662e-113</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.982101340363155e-195</v>
+        <v>1.050292103471164e-100</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.003059106279366e-168</v>
+        <v>1.217424272737461e-74</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.397353366191294e-138</v>
+        <v>2.252019847929814e-125</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.132490364734819e-131</v>
+        <v>2.977528375402662e-113</v>
       </c>
       <c r="BW2" t="n">
-        <v>5.797595732200557e-80</v>
+        <v>1.050292103471164e-100</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.526690199731296e-129</v>
+        <v>1.217424272737461e-74</v>
       </c>
       <c r="BY2" t="n">
-        <v>4.708194896436405e-167</v>
+        <v>6.074925129413601e-88</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.579371404883537e-193</v>
+        <v>2.370409339477824e-236</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.327905118837144e-239</v>
+        <v>4.423116995866965e-195</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.885278225951185e-213</v>
+        <v>6.113789844853847e-169</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.397330260098116e-193</v>
+        <v>2.328420653658036e-138</v>
       </c>
       <c r="CD2" t="n">
-        <v>4.548047211925075e-154</v>
+        <v>6.036382691991988e-132</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.041214844934e-117</v>
+        <v>9.793715584300667e-80</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.626796617070064e-138</v>
+        <v>1.05973883506197e-191</v>
       </c>
       <c r="CG2" t="n">
-        <v>6.156075824380905e-142</v>
+        <v>1.70251889134966e-239</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.895415133807304e-137</v>
+        <v>1.337374905576636e-213</v>
       </c>
       <c r="CI2" t="n">
-        <v>5.424477680666993e-121</v>
+        <v>8.702163341175226e-194</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.227995398833852e-95</v>
+        <v>4.80237046233334e-154</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.312609194759262e-102</v>
+        <v>4.396755784078157e-118</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.128729451988089e-93</v>
+        <v>1.525213192505977e-137</v>
       </c>
       <c r="CM2" t="n">
-        <v>5.6882129411944e-183</v>
+        <v>7.705884330155344e-143</v>
       </c>
       <c r="CN2" t="n">
-        <v>2.049540785371354e-236</v>
+        <v>1.336295379036314e-137</v>
       </c>
       <c r="CO2" t="n">
-        <v>4.786934848945807e-223</v>
+        <v>3.391037918475823e-120</v>
       </c>
       <c r="CP2" t="n">
-        <v>4.040968808025316e-134</v>
+        <v>2.35246080559001e-95</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.698905597744395e-219</v>
+        <v>1.490319883948544e-102</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.451966280547276e-193</v>
+        <v>2.96486103318764e-89</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.436082108566279e-138</v>
+        <v>5.293616456900718e-184</v>
       </c>
       <c r="CT2" t="n">
-        <v>8.897086951947176e-116</v>
+        <v>2.77493437981419e-236</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.184816882362219e-122</v>
+        <v>4.535324314063967e-223</v>
       </c>
       <c r="CV2" t="n">
-        <v>8.682997384335707e-106</v>
+        <v>1.784956000278194e-134</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.617372226049459e-93</v>
+        <v>5.392941971796096e-219</v>
       </c>
       <c r="CX2" t="n">
-        <v>2.145544313528703e-168</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>4.956642626400604e-109</v>
-      </c>
+        <v>1.566544667032363e-193</v>
+      </c>
+      <c r="CY2" t="inlineStr"/>
       <c r="CZ2" t="n">
-        <v>7.634443988666727e-173</v>
+        <v>4.443828309721809e-138</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.18545806942244e-189</v>
+        <v>1.832587424909225e-113</v>
       </c>
       <c r="DB2" t="n">
-        <v>6.648475455210733e-136</v>
+        <v>5.105814817813725e-124</v>
       </c>
       <c r="DC2" t="n">
-        <v>4.764661270764009e-229</v>
+        <v>3.963095243226482e-102</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.849491607206332e-231</v>
+        <v>1.21572347816084e-99</v>
       </c>
       <c r="DE2" t="n">
-        <v>5.451537131769769e-221</v>
+        <v>3.845050339904923e-169</v>
       </c>
       <c r="DF2" t="n">
-        <v>2.20964126950133e-155</v>
+        <v>4.670005199757644e-109</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.373145289724208e-224</v>
+        <v>1.3257142921064e-172</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.000838641543535e-226</v>
+        <v>1.396971496506043e-189</v>
       </c>
       <c r="DI2" t="n">
-        <v>8.672179850876705e-212</v>
+        <v>1.076098367370522e-138</v>
       </c>
       <c r="DJ2" t="n">
-        <v>7.261485389315348e-150</v>
+        <v>7.851700405215711e-229</v>
       </c>
       <c r="DK2" t="n">
-        <v>1.432149776067889e-207</v>
+        <v>8.407230855839419e-231</v>
       </c>
       <c r="DL2" t="n">
-        <v>5.133899936951043e-219</v>
+        <v>1.900855195639368e-220</v>
       </c>
       <c r="DM2" t="n">
-        <v>2.261596316753038e-206</v>
+        <v>1.685259481778732e-159</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.18248907137901e-151</v>
+        <v>5.164465576036073e-224</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.966182312567983e-188</v>
+        <v>1.751129492306083e-226</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.420796939497866e-187</v>
+        <v>1.557249922948091e-211</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.272208247100187e-174</v>
+        <v>8.472184643918783e-151</v>
       </c>
       <c r="DR2" t="n">
-        <v>3.013512015130932e-160</v>
+        <v>1.04307821215355e-207</v>
       </c>
       <c r="DS2" t="n">
-        <v>6.038193267525589e-223</v>
+        <v>1.054442759593254e-218</v>
       </c>
       <c r="DT2" t="n">
-        <v>9.958168005466414e-225</v>
+        <v>1.972934379719468e-205</v>
       </c>
       <c r="DU2" t="n">
-        <v>7.718284964400558e-216</v>
+        <v>2.577321606433937e-151</v>
       </c>
       <c r="DV2" t="n">
-        <v>7.78058000821282e-153</v>
+        <v>1.405514699502762e-187</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.987955808005e-203</v>
+        <v>9.012609065991112e-187</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.300949437549524e-211</v>
+        <v>1.4761181159284e-173</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.351879634694776e-190</v>
+        <v>6.925599973696401e-160</v>
       </c>
       <c r="DZ2" t="n">
-        <v>1.092784803128778e-127</v>
+        <v>8.947578842841923e-223</v>
       </c>
       <c r="EA2" t="n">
-        <v>7.415869838556775e-223</v>
+        <v>1.172248572158554e-224</v>
       </c>
       <c r="EB2" t="n">
-        <v>5.808369639447669e-217</v>
+        <v>1.311352853277626e-215</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.053870628985072e-193</v>
+        <v>1.178364434014375e-156</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.822071809662134e-138</v>
+        <v>2.351874619255307e-202</v>
       </c>
       <c r="EE2" t="n">
-        <v>3.337720001695315e-217</v>
+        <v>3.413398644134744e-210</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.497198542868852e-222</v>
+        <v>2.280327276999395e-188</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.071985982163921e-208</v>
+        <v>3.606397447444066e-130</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.058158721156001e-130</v>
+        <v>1.941078200181305e-221</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.159150917362608e-210</v>
+        <v>2.079912331708276e-214</v>
       </c>
       <c r="EJ2" t="n">
-        <v>5.471936548835244e-222</v>
+        <v>2.080994891903101e-190</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.233412859760876e-215</v>
+        <v>5.517494218083538e-142</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.597495709121568e-155</v>
+        <v>2.282493185664039e-216</v>
       </c>
       <c r="EM2" t="n">
-        <v>5.06779045370393e-223</v>
+        <v>1.087605199001926e-221</v>
       </c>
       <c r="EN2" t="n">
-        <v>2.459273719298527e-226</v>
+        <v>9.295848841518874e-208</v>
       </c>
       <c r="EO2" t="n">
-        <v>7.902180989556428e-218</v>
+        <v>1.276364842809803e-131</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.943758063037513e-150</v>
+        <v>1.970906431930666e-209</v>
       </c>
       <c r="EQ2" t="n">
-        <v>2.998390782301488e-221</v>
+        <v>1.107301131527248e-221</v>
       </c>
       <c r="ER2" t="n">
-        <v>2.158654520448288e-224</v>
+        <v>1.032607692397784e-214</v>
       </c>
       <c r="ES2" t="n">
-        <v>4.011402970607253e-211</v>
+        <v>4.244229393594946e-158</v>
       </c>
       <c r="ET2" t="n">
-        <v>7.474866679371675e-144</v>
+        <v>1.924511644550235e-222</v>
       </c>
       <c r="EU2" t="n">
-        <v>4.119110738235623e-199</v>
+        <v>7.532218171900622e-226</v>
       </c>
       <c r="EV2" t="n">
-        <v>2.65336525383189e-209</v>
+        <v>3.424818572279653e-217</v>
       </c>
       <c r="EW2" t="n">
-        <v>2.843977132528027e-199</v>
+        <v>3.477135980644545e-151</v>
       </c>
       <c r="EX2" t="n">
-        <v>3.368994021993606e-106</v>
+        <v>5.027158541681735e-221</v>
       </c>
       <c r="EY2" t="n">
-        <v>4.998182020086116e-150</v>
+        <v>3.309208863179881e-224</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3.216920120759914e-166</v>
+        <v>8.003306474637567e-211</v>
       </c>
       <c r="FA2" t="n">
-        <v>1.951768208670488e-174</v>
+        <v>2.155318624838024e-143</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.124543220682645e-107</v>
+        <v>2.190265532398807e-197</v>
       </c>
       <c r="FC2" t="n">
-        <v>6.041809963261968e-194</v>
+        <v>1.42343726641578e-208</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.486249526126038e-201</v>
+        <v>2.924896652515832e-198</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.586837532622218e-191</v>
+        <v>8.696313683589839e-105</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.415117581478502e-143</v>
+        <v>3.449452854658564e-148</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.887515598395801e-226</v>
+        <v>1.832980003276786e-165</v>
       </c>
       <c r="FH2" t="n">
-        <v>5.776643008823677e-222</v>
+        <v>1.534069750523873e-174</v>
       </c>
       <c r="FI2" t="n">
-        <v>5.059636144833944e-160</v>
+        <v>1.014063782215335e-110</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.385555033530647e-215</v>
+        <v>1.317078748636726e-193</v>
       </c>
       <c r="FK2" t="n">
-        <v>3.318953910350796e-208</v>
+        <v>1.886119369182865e-201</v>
       </c>
       <c r="FL2" t="n">
-        <v>2.126088793250534e-155</v>
+        <v>4.334245250402517e-191</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.271036636089908e-213</v>
+        <v>2.112153627756022e-144</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.710305823653215e-210</v>
+        <v>2.242003456174875e-226</v>
       </c>
       <c r="FO2" t="n">
-        <v>6.874565868235828e-137</v>
+        <v>5.835958382033481e-222</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.933597453614245e-230</v>
+        <v>3.284182337183646e-160</v>
       </c>
       <c r="FQ2" t="n">
-        <v>8.154165076097819e-223</v>
+        <v>3.566675553800404e-215</v>
       </c>
       <c r="FR2" t="n">
-        <v>5.669743685474522e-164</v>
+        <v>2.566622492378323e-208</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.141815067311333e-214</v>
+        <v>4.256446823796357e-156</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.196651453433902e-203</v>
+        <v>4.017262223754573e-213</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.430809763767254e-163</v>
+        <v>2.730573292299545e-210</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.537826721534432e-117</v>
+        <v>1.56264157492945e-138</v>
       </c>
       <c r="FW2" t="n">
-        <v>1.028887201577563e-115</v>
+        <v>2.053452846854971e-230</v>
       </c>
       <c r="FX2" t="n">
-        <v>3.564518406880788e-186</v>
+        <v>8.166035912987488e-223</v>
       </c>
       <c r="FY2" t="n">
-        <v>4.149702804913008e-193</v>
+        <v>1.468213281690554e-163</v>
       </c>
       <c r="FZ2" t="n">
-        <v>8.84200353048054e-190</v>
+        <v>1.161084730671064e-214</v>
       </c>
       <c r="GA2" t="n">
-        <v>3.355478812285894e-189</v>
+        <v>7.998563419058944e-204</v>
       </c>
       <c r="GB2" t="n">
-        <v>4.166259894572412e-121</v>
+        <v>7.608424000548632e-164</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.423765551037095e-177</v>
+        <v>3.092771330620074e-117</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.781345375774576e-143</v>
+        <v>1.129472945292856e-110</v>
       </c>
       <c r="GE2" t="n">
-        <v>2.559756245848871e-211</v>
+        <v>3.122171539441117e-185</v>
       </c>
       <c r="GF2" t="n">
-        <v>5.465529717110617e-178</v>
+        <v>2.439322552271647e-193</v>
       </c>
       <c r="GG2" t="n">
-        <v>2.772891528977953e-162</v>
+        <v>3.190606384247118e-190</v>
       </c>
       <c r="GH2" t="n">
-        <v>4.777676215029544e-143</v>
+        <v>3.77088704664609e-188</v>
       </c>
       <c r="GI2" t="n">
-        <v>5.567469621220054e-150</v>
+        <v>1.696044518794297e-121</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1.827973944083505e-178</v>
+        <v>1.00729207049059e-175</v>
       </c>
       <c r="GK2" t="n">
-        <v>2.892602061001842e-179</v>
+        <v>4.241059755250029e-141</v>
       </c>
       <c r="GL2" t="n">
-        <v>5.950302717202263e-178</v>
+        <v>2.461274205385079e-211</v>
       </c>
       <c r="GM2" t="n">
-        <v>2.012443816195278e-163</v>
+        <v>1.157907066084211e-177</v>
       </c>
       <c r="GN2" t="n">
-        <v>2.290271796624136e-168</v>
+        <v>6.316035020998799e-163</v>
       </c>
       <c r="GO2" t="n">
-        <v>2.820406553026678e-189</v>
+        <v>3.488696245396832e-140</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.414313058865167e-157</v>
+        <v>2.795973500315281e-148</v>
       </c>
       <c r="GQ2" t="n">
-        <v>2.763980254968329e-196</v>
+        <v>4.850052336033515e-149</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.660750819467384e-175</v>
+        <v>1.09912213395435e-172</v>
       </c>
       <c r="GS2" t="n">
-        <v>2.567650460600849e-191</v>
+        <v>4.316771380664803e-156</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.844700205348955e-178</v>
+        <v>3.943731956926872e-120</v>
       </c>
       <c r="GU2" t="n">
-        <v>2.172534155766143e-156</v>
+        <v>5.85813329660834e-160</v>
       </c>
       <c r="GV2" t="n">
-        <v>7.062783782911672e-202</v>
+        <v>7.934222619316709e-137</v>
       </c>
       <c r="GW2" t="n">
-        <v>4.829679268115078e-180</v>
+        <v>3.701115094131239e-140</v>
       </c>
       <c r="GX2" t="n">
-        <v>9.85931340940466e-138</v>
+        <v>2.544873776202505e-220</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.371895241355308e-211</v>
+        <v>3.651142576087256e-230</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.970651135299478e-195</v>
+        <v>1.286992637239842e-221</v>
       </c>
       <c r="HA2" t="n">
-        <v>4.599143461267379e-155</v>
+        <v>7.722758085831698e-218</v>
       </c>
       <c r="HB2" t="n">
-        <v>1.235728000036713e-189</v>
+        <v>1.400076981571981e-176</v>
       </c>
       <c r="HC2" t="n">
-        <v>1.453740109059529e-189</v>
+        <v>2.227794390475669e-203</v>
       </c>
       <c r="HD2" t="n">
-        <v>1.672647449721809e-157</v>
+        <v>1.497819017687505e-183</v>
       </c>
       <c r="HE2" t="n">
-        <v>2.459455929741158e-176</v>
+        <v>4.160283377789135e-178</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.125147504417126e-161</v>
+        <v>9.196288358550807e-179</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.347869517752587e-150</v>
+        <v>1.298963435920486e-177</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.204739159740813e-95</v>
+        <v>5.302396932776461e-164</v>
       </c>
       <c r="HI2" t="n">
-        <v>7.578917434920905e-141</v>
+        <v>5.95701131010942e-168</v>
       </c>
       <c r="HJ2" t="n">
-        <v>2.851100492022621e-153</v>
+        <v>3.797442059219486e-189</v>
       </c>
       <c r="HK2" t="n">
-        <v>3.996243170672653e-190</v>
+        <v>3.143159444320905e-158</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.234386505630075e-189</v>
+        <v>6.754912907496828e-196</v>
       </c>
       <c r="HM2" t="n">
-        <v>2.700867805814424e-165</v>
+        <v>2.910189036481068e-175</v>
       </c>
       <c r="HN2" t="n">
-        <v>1.192262859282393e-125</v>
+        <v>4.993039911841014e-191</v>
       </c>
       <c r="HO2" t="n">
-        <v>5.663771613654881e-163</v>
-      </c>
-      <c r="HP2" t="inlineStr"/>
-      <c r="HQ2" t="inlineStr"/>
-      <c r="HR2" t="inlineStr"/>
-      <c r="HS2" t="inlineStr"/>
-      <c r="HT2" t="inlineStr"/>
-      <c r="HU2" t="inlineStr"/>
-      <c r="HV2" t="inlineStr"/>
-      <c r="HW2" t="inlineStr"/>
+        <v>1.345777889214028e-178</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1.881550272828967e-156</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>3.685440924064477e-201</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>3.072289678949221e-179</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1.317204888378001e-186</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>3.301698367802192e-135</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>3.345808541652837e-211</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1.693440505635956e-195</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>4.953412703860756e-155</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>5.00384771216245e-188</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1.509934108474781e-189</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>7.319602200892112e-155</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>1.098228621109969e-173</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>4.904495455754619e-160</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1.276978427744913e-151</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>2.261394269275741e-96</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>9.91097541371802e-141</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>3.43334800963085e-153</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1.506703999699284e-188</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1.296176663215251e-189</v>
+      </c>
+      <c r="II2" t="n">
+        <v>6.030365401424843e-167</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>4.299783352286063e-123</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>1.922397019116243e-162</v>
+      </c>
+      <c r="IL2" t="inlineStr"/>
+      <c r="IM2" t="inlineStr"/>
+      <c r="IN2" t="inlineStr"/>
+      <c r="IO2" t="inlineStr"/>
+      <c r="IP2" t="inlineStr"/>
+      <c r="IQ2" t="inlineStr"/>
+      <c r="IR2" t="inlineStr"/>
+      <c r="IS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2263,669 +2437,733 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.35656607851111e-237</v>
+        <v>2.853468322062558e-233</v>
       </c>
       <c r="C3" t="n">
-        <v>6.060166297629576e-240</v>
+        <v>5.98077188256906e-232</v>
       </c>
       <c r="D3" t="n">
-        <v>4.134864398099461e-241</v>
+        <v>8.662514963510981e-239</v>
       </c>
       <c r="E3" t="n">
-        <v>7.897921630303967e-247</v>
+        <v>3.155145925066191e-248</v>
       </c>
       <c r="F3" t="n">
-        <v>2.239152788391402e-246</v>
+        <v>1.329261884464758e-246</v>
       </c>
       <c r="G3" t="n">
-        <v>1.272378444761957e-232</v>
+        <v>7.36419582878032e-234</v>
       </c>
       <c r="H3" t="n">
-        <v>7.992550671873794e-100</v>
+        <v>1.833461969160065e-88</v>
       </c>
       <c r="I3" t="n">
-        <v>1.695374492325604e-187</v>
+        <v>1.599628740991859e-186</v>
       </c>
       <c r="J3" t="n">
-        <v>6.791875502447301e-246</v>
+        <v>1.222363294923821e-245</v>
       </c>
       <c r="K3" t="n">
-        <v>2.427872827620436e-207</v>
+        <v>1.901373895299283e-243</v>
       </c>
       <c r="L3" t="n">
-        <v>9.817890637072901e-221</v>
+        <v>4.037315446582069e-211</v>
       </c>
       <c r="M3" t="n">
-        <v>9.979471533279977e-243</v>
+        <v>2.308174471417227e-225</v>
       </c>
       <c r="N3" t="n">
-        <v>1.576635259660435e-223</v>
+        <v>1.224417684594898e-225</v>
       </c>
       <c r="O3" t="n">
-        <v>2.199572537444751e-223</v>
+        <v>1.078996993013691e-188</v>
       </c>
       <c r="P3" t="n">
-        <v>2.184981362756551e-219</v>
+        <v>2.295635681471746e-187</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.371128317091668e-195</v>
+        <v>1.118754974520321e-186</v>
       </c>
       <c r="R3" t="n">
-        <v>3.113126770957262e-202</v>
+        <v>2.295784336778105e-186</v>
       </c>
       <c r="S3" t="n">
-        <v>1.034236282972366e-201</v>
+        <v>1.904963630511273e-206</v>
       </c>
       <c r="T3" t="n">
-        <v>8.428245530650795e-204</v>
+        <v>1.153649841695057e-207</v>
       </c>
       <c r="U3" t="n">
-        <v>7.588704159148692e-201</v>
+        <v>7.692536978973796e-211</v>
       </c>
       <c r="V3" t="n">
-        <v>7.076420306294831e-201</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+        <v>1.605690719600273e-203</v>
+      </c>
+      <c r="W3" t="n">
+        <v>3.017494905309934e-207</v>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>1.901373895299283e-243</v>
-      </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="n">
-        <v>3.652889696357362e-247</v>
+        <v>6.765311445608053e-247</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="n">
-        <v>1.877246473748575e-229</v>
+        <v>4.520553402362563e-234</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.653617519662053e-179</v>
+        <v>4.273059901540619e-172</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.274214637241954e-245</v>
+        <v>1.076772684573882e-245</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.675639635408844e-232</v>
+        <v>2.244585308021823e-245</v>
       </c>
       <c r="AH3" t="n">
-        <v>7.443061640981503e-246</v>
+        <v>6.258385403283726e-247</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.227576339407087e-246</v>
+        <v>8.113927936358995e-247</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.710909162474278e-244</v>
+        <v>2.579443581554688e-246</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.483203564373593e-217</v>
+        <v>5.331881953663348e-236</v>
       </c>
       <c r="AL3" t="n">
-        <v>7.96437296823653e-226</v>
+        <v>2.326248815395096e-240</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.093980466377234e-235</v>
+        <v>7.920266967234062e-248</v>
       </c>
       <c r="AN3" t="n">
-        <v>6.503989008938294e-239</v>
+        <v>1.712564832915942e-247</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.048761064772673e-247</v>
+        <v>5.330745159210521e-247</v>
       </c>
       <c r="AP3" t="n">
-        <v>7.964279997391058e-242</v>
+        <v>1.012700204265387e-248</v>
       </c>
       <c r="AQ3" t="n">
-        <v>5.023797550945841e-243</v>
+        <v>5.650305523952246e-249</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.00033078430098e-242</v>
+        <v>5.929407983024534e-249</v>
       </c>
       <c r="AS3" t="n">
-        <v>7.237340724395191e-242</v>
+        <v>1.055230231300148e-248</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.789151472379717e-247</v>
+        <v>2.502847423106864e-247</v>
       </c>
       <c r="AU3" t="n">
-        <v>3.173024516837977e-247</v>
+        <v>2.073950014719656e-247</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.760764988282965e-247</v>
+        <v>6.059043895831293e-247</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.421088248501935e-243</v>
+        <v>2.680166687699723e-248</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.475708396191361e-236</v>
+        <v>6.200160087376828e-200</v>
       </c>
       <c r="AY3" t="n">
-        <v>2.861353184393301e-247</v>
+        <v>9.873991209344005e-249</v>
       </c>
       <c r="AZ3" t="n">
-        <v>2.800110376270497e-247</v>
+        <v>4.408965124477323e-249</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.815173929924069e-247</v>
+        <v>5.753750660328429e-249</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.84646747016091e-247</v>
+        <v>9.85779078887e-249</v>
       </c>
       <c r="BC3" t="n">
-        <v>5.552936737889224e-247</v>
+        <v>6.185761781795098e-245</v>
       </c>
       <c r="BD3" t="n">
-        <v>5.929637799206581e-247</v>
+        <v>5.998338074985221e-246</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.799834902702866e-247</v>
+        <v>1.78414602397651e-245</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.336770650415136e-241</v>
+        <v>3.375205607375512e-246</v>
       </c>
       <c r="BG3" t="n">
-        <v>6.340290781618953e-222</v>
+        <v>1.550081639618797e-237</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.64600568755362e-247</v>
+        <v>5.692935799276683e-247</v>
       </c>
       <c r="BI3" t="n">
-        <v>9.198757076241467e-244</v>
+        <v>2.413105122267668e-245</v>
       </c>
       <c r="BJ3" t="n">
-        <v>6.691084356920803e-246</v>
+        <v>7.341373714209672e-248</v>
       </c>
       <c r="BK3" t="n">
-        <v>2.89959732484849e-245</v>
+        <v>2.033884348681243e-246</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.075962905029587e-246</v>
+        <v>4.462015816012148e-248</v>
       </c>
       <c r="BM3" t="n">
-        <v>4.510589967811674e-145</v>
+        <v>2.001525054725556e-146</v>
       </c>
       <c r="BN3" t="n">
-        <v>4.881867903588038e-120</v>
+        <v>1.479713204269623e-119</v>
       </c>
       <c r="BO3" t="n">
-        <v>3.261361304624401e-122</v>
+        <v>1.756068038062968e-122</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.266909917444067e-116</v>
+        <v>1.219597872337183e-116</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.272222074280372e-167</v>
+        <v>2.001525054725556e-146</v>
       </c>
       <c r="BR3" t="n">
-        <v>7.483047897911671e-243</v>
+        <v>1.479713204269623e-119</v>
       </c>
       <c r="BS3" t="n">
-        <v>3.651991285409025e-195</v>
+        <v>1.756068038062968e-122</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.487359707136103e-163</v>
+        <v>1.219597872337183e-116</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.802683123615389e-133</v>
+        <v>2.001525054725556e-146</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.240544228795097e-133</v>
+        <v>1.479713204269623e-119</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.26496928701318e-103</v>
+        <v>1.756068038062968e-122</v>
       </c>
       <c r="BX3" t="n">
-        <v>5.178511872682939e-132</v>
+        <v>1.219597872337183e-116</v>
       </c>
       <c r="BY3" t="n">
-        <v>2.381794241062483e-168</v>
+        <v>6.949966827863371e-167</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3.725975304997175e-173</v>
+        <v>1.518669222283274e-242</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.233062475676935e-239</v>
+        <v>7.941214381064281e-195</v>
       </c>
       <c r="CB3" t="n">
-        <v>3.796719042292878e-217</v>
+        <v>1.974215707590507e-163</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.55190962779998e-195</v>
+        <v>1.167305427891272e-134</v>
       </c>
       <c r="CD3" t="n">
-        <v>7.773573573763145e-148</v>
+        <v>5.987965988337546e-134</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.223743692980029e-117</v>
+        <v>7.677084295827279e-102</v>
       </c>
       <c r="CF3" t="n">
-        <v>2.300937302960027e-137</v>
+        <v>1.096355264518932e-173</v>
       </c>
       <c r="CG3" t="n">
-        <v>2.663433202783808e-135</v>
+        <v>1.605181209955008e-239</v>
       </c>
       <c r="CH3" t="n">
-        <v>2.051716238863625e-145</v>
+        <v>3.457959239967637e-217</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.421258873627222e-114</v>
+        <v>8.822030939205476e-196</v>
       </c>
       <c r="CJ3" t="n">
-        <v>8.520580192896642e-112</v>
+        <v>2.749131727587811e-148</v>
       </c>
       <c r="CK3" t="n">
-        <v>3.057217272911675e-112</v>
+        <v>9.280050347836881e-118</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.788590495327627e-93</v>
+        <v>9.445419325886154e-137</v>
       </c>
       <c r="CM3" t="n">
-        <v>7.765742175333238e-168</v>
+        <v>2.009287623016224e-137</v>
       </c>
       <c r="CN3" t="n">
-        <v>1.362159673134702e-224</v>
+        <v>1.888783744665638e-145</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.914268820164242e-224</v>
+        <v>2.480466524772386e-114</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.854718041021957e-137</v>
+        <v>1.119286724288468e-107</v>
       </c>
       <c r="CQ3" t="n">
-        <v>6.528345393785388e-221</v>
+        <v>2.55065449998719e-111</v>
       </c>
       <c r="CR3" t="n">
-        <v>8.334987839662474e-197</v>
+        <v>3.855700184289052e-89</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.234490765973605e-137</v>
+        <v>7.142370364642152e-169</v>
       </c>
       <c r="CT3" t="n">
-        <v>1.495579184735563e-198</v>
+        <v>1.288861854028988e-224</v>
       </c>
       <c r="CU3" t="n">
-        <v>3.952338462547334e-208</v>
+        <v>2.587777955622838e-224</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.323705532706635e-115</v>
+        <v>8.847183848124753e-138</v>
       </c>
       <c r="CW3" t="n">
-        <v>5.619732889349411e-109</v>
+        <v>9.621202199468666e-221</v>
       </c>
       <c r="CX3" t="n">
-        <v>8.57901993111964e-165</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>7.69566775010409e-109</v>
-      </c>
+        <v>9.208944172023674e-197</v>
+      </c>
+      <c r="CY3" t="inlineStr"/>
       <c r="CZ3" t="n">
-        <v>1.120678647775631e-170</v>
+        <v>4.732329464781725e-137</v>
       </c>
       <c r="DA3" t="n">
-        <v>2.055262196382247e-185</v>
+        <v>1.545519116855525e-197</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.205749150870056e-140</v>
+        <v>5.801081814145203e-206</v>
       </c>
       <c r="DC3" t="n">
-        <v>3.408888042539226e-229</v>
+        <v>1.839425160752025e-110</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.937257745995287e-231</v>
+        <v>4.051683269581296e-117</v>
       </c>
       <c r="DE3" t="n">
-        <v>6.546057312847868e-222</v>
+        <v>2.96888080864446e-166</v>
       </c>
       <c r="DF3" t="n">
-        <v>9.413557289033368e-157</v>
+        <v>7.405905858972872e-109</v>
       </c>
       <c r="DG3" t="n">
-        <v>9.743336114002848e-225</v>
+        <v>1.915836570577516e-170</v>
       </c>
       <c r="DH3" t="n">
-        <v>3.605632046088591e-227</v>
+        <v>2.371467055092519e-185</v>
       </c>
       <c r="DI3" t="n">
-        <v>6.377066843416783e-213</v>
+        <v>6.306067604552273e-143</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.450366323177408e-158</v>
+        <v>5.591284899976473e-229</v>
       </c>
       <c r="DK3" t="n">
-        <v>7.743204720201378e-208</v>
+        <v>3.298146780179309e-231</v>
       </c>
       <c r="DL3" t="n">
-        <v>1.344472704665948e-219</v>
+        <v>2.136261952136707e-221</v>
       </c>
       <c r="DM3" t="n">
-        <v>1.801234259791577e-207</v>
+        <v>1.05812048815668e-160</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.599207172299343e-149</v>
+        <v>3.629136006511084e-224</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.296457819328639e-188</v>
+        <v>6.217232766118274e-227</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.221520773735265e-188</v>
+        <v>1.115836872190781e-212</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.143587111342649e-175</v>
+        <v>3.700329872647586e-159</v>
       </c>
       <c r="DR3" t="n">
-        <v>5.537341129293772e-164</v>
+        <v>5.654110062946712e-208</v>
       </c>
       <c r="DS3" t="n">
-        <v>3.228118169391505e-223</v>
+        <v>2.713304371057238e-219</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.64257532830224e-225</v>
+        <v>1.46615838307317e-206</v>
       </c>
       <c r="DU3" t="n">
-        <v>4.685207802290134e-217</v>
+        <v>3.535405421769412e-150</v>
       </c>
       <c r="DV3" t="n">
-        <v>5.713968362585715e-157</v>
+        <v>6.056672383367437e-188</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.115882236025086e-203</v>
+        <v>7.311087019644892e-188</v>
       </c>
       <c r="DX3" t="n">
-        <v>4.232521260182585e-212</v>
+        <v>7.186900583497209e-175</v>
       </c>
       <c r="DY3" t="n">
-        <v>6.880776530215492e-192</v>
+        <v>9.543494596262791e-164</v>
       </c>
       <c r="DZ3" t="n">
-        <v>1.795165159287873e-133</v>
+        <v>4.758305211752559e-223</v>
       </c>
       <c r="EA3" t="n">
-        <v>2.486037365349955e-223</v>
+        <v>1.916816641900662e-225</v>
       </c>
       <c r="EB3" t="n">
-        <v>7.767663958633933e-218</v>
+        <v>7.636951740030203e-217</v>
       </c>
       <c r="EC3" t="n">
-        <v>3.341352927943087e-195</v>
+        <v>3.069734253194037e-160</v>
       </c>
       <c r="ED3" t="n">
-        <v>5.282390099114309e-139</v>
+        <v>1.302758826516047e-202</v>
       </c>
       <c r="EE3" t="n">
-        <v>2.215744209667691e-217</v>
+        <v>5.947627415175677e-211</v>
       </c>
       <c r="EF3" t="n">
-        <v>8.415636172145738e-223</v>
+        <v>3.143477339835488e-190</v>
       </c>
       <c r="EG3" t="n">
-        <v>1.622590793810018e-209</v>
+        <v>3.906677165394663e-135</v>
       </c>
       <c r="EH3" t="n">
-        <v>5.721005771363595e-138</v>
+        <v>6.067570225896722e-222</v>
       </c>
       <c r="EI3" t="n">
-        <v>6.45215515388609e-211</v>
+        <v>2.297945630669083e-215</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.468566128840809e-222</v>
+        <v>4.880292457054731e-192</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.94327337782871e-216</v>
+        <v>1.171395769573241e-142</v>
       </c>
       <c r="EL3" t="n">
-        <v>6.69282334884776e-159</v>
+        <v>1.496771467973083e-216</v>
       </c>
       <c r="EM3" t="n">
-        <v>3.20653763987081e-223</v>
+        <v>3.547858437234479e-222</v>
       </c>
       <c r="EN3" t="n">
-        <v>6.042271981244467e-227</v>
+        <v>1.325693761101711e-208</v>
       </c>
       <c r="EO3" t="n">
-        <v>4.017148743950051e-219</v>
+        <v>1.386049740982631e-138</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.89186231044835e-152</v>
+        <v>1.074055024527889e-209</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.683717646365113e-221</v>
+        <v>2.916150573537576e-222</v>
       </c>
       <c r="ER3" t="n">
-        <v>4.50981371373704e-225</v>
+        <v>8.362350159840015e-216</v>
       </c>
       <c r="ES3" t="n">
-        <v>3.04768002034487e-212</v>
+        <v>3.543638502943883e-161</v>
       </c>
       <c r="ET3" t="n">
-        <v>6.769334463253036e-146</v>
+        <v>1.2034762199774e-222</v>
       </c>
       <c r="EU3" t="n">
-        <v>2.505359665781266e-199</v>
+        <v>1.776199573256357e-226</v>
       </c>
       <c r="EV3" t="n">
-        <v>6.819775522162826e-210</v>
+        <v>1.589172277264949e-218</v>
       </c>
       <c r="EW3" t="n">
-        <v>2.763741421327022e-200</v>
+        <v>2.084607986825533e-153</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.164245469672152e-98</v>
+        <v>2.807537465799032e-221</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.119603451220971e-150</v>
+        <v>6.80349022552475e-225</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3.148088725059776e-168</v>
+        <v>5.896822164908964e-212</v>
       </c>
       <c r="FA3" t="n">
-        <v>2.573909555046426e-178</v>
+        <v>1.708300753683567e-145</v>
       </c>
       <c r="FB3" t="n">
-        <v>2.139420797613733e-110</v>
+        <v>1.309852167439407e-197</v>
       </c>
       <c r="FC3" t="n">
-        <v>3.20026999381473e-194</v>
+        <v>3.539381496730786e-209</v>
       </c>
       <c r="FD3" t="n">
-        <v>2.304185790504568e-202</v>
+        <v>2.596294371933651e-199</v>
       </c>
       <c r="FE3" t="n">
-        <v>5.167915943214047e-193</v>
+        <v>1.344449808932355e-97</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.323988613230669e-144</v>
+        <v>7.39925948996998e-149</v>
       </c>
       <c r="FG3" t="n">
-        <v>5.344232360725514e-227</v>
+        <v>1.693311388196164e-167</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.528860858546344e-222</v>
+        <v>2.204831563900605e-178</v>
       </c>
       <c r="FI3" t="n">
-        <v>6.659312230918762e-161</v>
+        <v>1.319014251797267e-111</v>
       </c>
       <c r="FJ3" t="n">
-        <v>8.849040546272831e-215</v>
+        <v>6.941600498822577e-194</v>
       </c>
       <c r="FK3" t="n">
-        <v>3.10230879852286e-206</v>
+        <v>2.909544652249777e-202</v>
       </c>
       <c r="FL3" t="n">
-        <v>2.552779833390651e-158</v>
+        <v>8.408273803632259e-193</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.577911523163291e-210</v>
+        <v>1.472092707281647e-145</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.60966608951569e-206</v>
+        <v>6.425588693117272e-227</v>
       </c>
       <c r="FO3" t="n">
-        <v>5.460127382547233e-135</v>
+        <v>1.575448076993623e-222</v>
       </c>
       <c r="FP3" t="n">
-        <v>4.242272642974554e-231</v>
+        <v>1.728628077126556e-161</v>
       </c>
       <c r="FQ3" t="n">
-        <v>5.007281476453931e-224</v>
+        <v>1.335961439201881e-214</v>
       </c>
       <c r="FR3" t="n">
-        <v>3.594749179094013e-164</v>
+        <v>2.322453922140483e-206</v>
       </c>
       <c r="FS3" t="n">
-        <v>9.135723791490281e-216</v>
+        <v>1.765199437911075e-159</v>
       </c>
       <c r="FT3" t="n">
-        <v>2.089380723124532e-202</v>
+        <v>5.528967079022563e-210</v>
       </c>
       <c r="FU3" t="n">
-        <v>4.178332067357714e-169</v>
+        <v>1.575748725828631e-206</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.832828531828861e-117</v>
+        <v>8.620153656550373e-137</v>
       </c>
       <c r="FW3" t="n">
-        <v>4.590377548344085e-117</v>
+        <v>4.595890915267298e-231</v>
       </c>
       <c r="FX3" t="n">
-        <v>9.898721089138843e-178</v>
+        <v>5.163897008741977e-224</v>
       </c>
       <c r="FY3" t="n">
-        <v>5.593382093900775e-189</v>
+        <v>4.118702665238899e-164</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.261978911337773e-182</v>
+        <v>9.525818875709229e-216</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.519037811585889e-151</v>
+        <v>1.363841947858415e-202</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.07399975170331e-130</v>
+        <v>5.971824330897271e-170</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.326926680324334e-145</v>
+        <v>3.593338804514406e-117</v>
       </c>
       <c r="GD3" t="n">
-        <v>2.803592048817413e-151</v>
+        <v>4.039854624550364e-112</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.559407257371315e-186</v>
+        <v>2.71302149180028e-177</v>
       </c>
       <c r="GF3" t="n">
-        <v>2.027128069425446e-165</v>
+        <v>2.957480660461261e-189</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.071232489027724e-155</v>
+        <v>3.033478563752908e-183</v>
       </c>
       <c r="GH3" t="n">
-        <v>9.208268985086841e-143</v>
+        <v>9.371737651165814e-150</v>
       </c>
       <c r="GI3" t="n">
-        <v>9.372432145305631e-149</v>
+        <v>7.133716165258275e-131</v>
       </c>
       <c r="GJ3" t="n">
-        <v>6.501836198015554e-133</v>
+        <v>1.080356889030407e-142</v>
       </c>
       <c r="GK3" t="n">
-        <v>2.525095689797777e-181</v>
+        <v>3.021445878069786e-149</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.262170814678206e-180</v>
+        <v>2.40394919016817e-186</v>
       </c>
       <c r="GM3" t="n">
-        <v>2.115651626674483e-189</v>
+        <v>7.294276428211705e-165</v>
       </c>
       <c r="GN3" t="n">
-        <v>6.894739512458002e-167</v>
+        <v>3.567358201742829e-157</v>
       </c>
       <c r="GO3" t="n">
-        <v>9.652797725428182e-170</v>
+        <v>7.879010915898113e-140</v>
       </c>
       <c r="GP3" t="n">
-        <v>2.965486372345122e-137</v>
+        <v>6.910402045202268e-147</v>
       </c>
       <c r="GQ3" t="n">
-        <v>5.051467513778522e-148</v>
+        <v>3.825942373974534e-132</v>
       </c>
       <c r="GR3" t="n">
-        <v>4.190140182791741e-174</v>
+        <v>4.582100299282182e-180</v>
       </c>
       <c r="GS3" t="n">
-        <v>6.623949278012085e-190</v>
+        <v>8.503873010298085e-180</v>
       </c>
       <c r="GT3" t="n">
-        <v>1.763716099984858e-196</v>
+        <v>1.72265725954667e-154</v>
       </c>
       <c r="GU3" t="n">
-        <v>6.237073330841474e-153</v>
+        <v>9.12215902873282e-157</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.155956927022718e-178</v>
+        <v>8.35752669082622e-129</v>
       </c>
       <c r="GW3" t="n">
-        <v>3.000753887108053e-155</v>
+        <v>3.495233000613457e-115</v>
       </c>
       <c r="GX3" t="n">
-        <v>4.014989162106153e-143</v>
+        <v>2.150008407553431e-163</v>
       </c>
       <c r="GY3" t="n">
-        <v>2.33764351588756e-214</v>
+        <v>1.748329751301116e-234</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.239623117060939e-199</v>
+        <v>4.742412337600249e-230</v>
       </c>
       <c r="HA3" t="n">
-        <v>8.225276220664473e-169</v>
+        <v>3.540745509346792e-228</v>
       </c>
       <c r="HB3" t="n">
-        <v>2.166351942071731e-190</v>
+        <v>1.952071760108961e-174</v>
       </c>
       <c r="HC3" t="n">
-        <v>2.163375180663285e-186</v>
+        <v>4.578400464025183e-178</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.64494649394323e-177</v>
+        <v>8.463524838005507e-157</v>
       </c>
       <c r="HE3" t="n">
-        <v>1.115095411728456e-166</v>
+        <v>4.648012136781427e-133</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.118727821626686e-146</v>
+        <v>7.960409514410713e-181</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.53879976951748e-176</v>
+        <v>4.908877853184872e-180</v>
       </c>
       <c r="HH3" t="n">
-        <v>7.53316897524751e-90</v>
+        <v>1.501446795785422e-189</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.281242859984593e-137</v>
+        <v>1.739088160484982e-166</v>
       </c>
       <c r="HJ3" t="n">
-        <v>2.60859784488008e-167</v>
+        <v>9.832091891087144e-170</v>
       </c>
       <c r="HK3" t="n">
-        <v>2.490294541548276e-190</v>
+        <v>2.570533002135241e-138</v>
       </c>
       <c r="HL3" t="n">
-        <v>4.483793974797271e-186</v>
+        <v>1.328828432545748e-147</v>
       </c>
       <c r="HM3" t="n">
-        <v>6.551583796969422e-161</v>
+        <v>6.43685446583561e-174</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.810118613938262e-125</v>
+        <v>1.866631845577524e-189</v>
       </c>
       <c r="HO3" t="n">
-        <v>8.09042595464066e-162</v>
-      </c>
-      <c r="HP3" t="inlineStr"/>
-      <c r="HQ3" t="inlineStr"/>
-      <c r="HR3" t="inlineStr"/>
-      <c r="HS3" t="inlineStr"/>
-      <c r="HT3" t="inlineStr"/>
-      <c r="HU3" t="inlineStr"/>
-      <c r="HV3" t="inlineStr"/>
-      <c r="HW3" t="inlineStr"/>
+        <v>1.613076590809242e-196</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>3.332687006058835e-153</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>1.082373082924422e-177</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>4.45272219118175e-154</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>1.548982297713968e-135</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>1.874086284537294e-140</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>5.461085315940537e-214</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1.1272568260315e-199</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>5.789298897727153e-169</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>9.495485019089685e-189</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>2.281530271171013e-186</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1.524611134284466e-174</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>5.855791975141719e-164</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>2.490579032880176e-145</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>2.713455679272314e-177</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>4.049195902636464e-90</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3.123527578399768e-137</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>1.980528373295685e-167</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1.048784625261755e-188</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>4.735213274120458e-186</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3.250361627958787e-163</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1.083697399392687e-122</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3.01881431875067e-161</v>
+      </c>
+      <c r="IL3" t="inlineStr"/>
+      <c r="IM3" t="inlineStr"/>
+      <c r="IN3" t="inlineStr"/>
+      <c r="IO3" t="inlineStr"/>
+      <c r="IP3" t="inlineStr"/>
+      <c r="IQ3" t="inlineStr"/>
+      <c r="IR3" t="inlineStr"/>
+      <c r="IS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2934,669 +3172,733 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.35656607851111e-237</v>
+        <v>2.853468322062558e-233</v>
       </c>
       <c r="C4" t="n">
-        <v>6.060166297629576e-240</v>
+        <v>5.98077188256906e-232</v>
       </c>
       <c r="D4" t="n">
-        <v>4.134864398099461e-241</v>
+        <v>8.662514963510981e-239</v>
       </c>
       <c r="E4" t="n">
-        <v>7.897921630303967e-247</v>
+        <v>3.155145925066909e-248</v>
       </c>
       <c r="F4" t="n">
-        <v>2.239152788391402e-246</v>
+        <v>1.329261884464758e-246</v>
       </c>
       <c r="G4" t="n">
-        <v>1.272378444762247e-232</v>
+        <v>7.364195828781996e-234</v>
       </c>
       <c r="H4" t="n">
-        <v>7.992550671841237e-100</v>
+        <v>1.833461969160065e-88</v>
       </c>
       <c r="I4" t="n">
-        <v>1.695374492325797e-187</v>
+        <v>1.599628740992223e-186</v>
       </c>
       <c r="J4" t="n">
-        <v>6.791875502447301e-246</v>
+        <v>1.222363294923821e-245</v>
       </c>
       <c r="K4" t="n">
-        <v>2.427872827620436e-207</v>
+        <v>1.901373895299283e-243</v>
       </c>
       <c r="L4" t="n">
-        <v>9.817890637070666e-221</v>
+        <v>4.037315446582069e-211</v>
       </c>
       <c r="M4" t="n">
-        <v>9.979471533277707e-243</v>
+        <v>2.308174471417227e-225</v>
       </c>
       <c r="N4" t="n">
-        <v>1.576635259660435e-223</v>
+        <v>1.224417684594898e-225</v>
       </c>
       <c r="O4" t="n">
-        <v>2.199572537444751e-223</v>
+        <v>1.078996993013446e-188</v>
       </c>
       <c r="P4" t="n">
-        <v>2.184981362756551e-219</v>
+        <v>2.295635681472269e-187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.371128317092208e-195</v>
+        <v>1.118754974520321e-186</v>
       </c>
       <c r="R4" t="n">
-        <v>3.113126770957262e-202</v>
+        <v>2.295784336778628e-186</v>
       </c>
       <c r="S4" t="n">
-        <v>1.034236282972366e-201</v>
+        <v>1.904963630511273e-206</v>
       </c>
       <c r="T4" t="n">
-        <v>8.428245530650795e-204</v>
+        <v>1.153649841695057e-207</v>
       </c>
       <c r="U4" t="n">
-        <v>7.588704159148259e-201</v>
+        <v>7.692536978973796e-211</v>
       </c>
       <c r="V4" t="n">
-        <v>7.076420306294831e-201</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
+        <v>1.605690719600455e-203</v>
+      </c>
+      <c r="W4" t="n">
+        <v>3.017494905309934e-207</v>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>1.901373895299283e-243</v>
-      </c>
+      <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>3.652889696357362e-247</v>
+        <v>6.765311445608053e-247</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>1.877246473748575e-229</v>
+        <v>4.520553402362563e-234</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.653617519662053e-179</v>
+        <v>4.273059901543537e-172</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.274214637241954e-245</v>
+        <v>1.076772684573882e-245</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.675639635408844e-232</v>
+        <v>2.244585308021823e-245</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.443061640981503e-246</v>
+        <v>6.258385403283726e-247</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.227576339407087e-246</v>
+        <v>8.113927936358995e-247</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.710909162474278e-244</v>
+        <v>2.579443581554688e-246</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.483203564373593e-217</v>
+        <v>5.331881953663348e-236</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.96437296823653e-226</v>
+        <v>2.326248815395625e-240</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.093980466377732e-235</v>
+        <v>7.920266967234062e-248</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.503989008939774e-239</v>
+        <v>1.712564832915942e-247</v>
       </c>
       <c r="AO4" t="n">
-        <v>6.048761064772673e-247</v>
+        <v>5.330745159210521e-247</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.964279997391058e-242</v>
+        <v>1.012700204265387e-248</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.023797550945841e-243</v>
+        <v>5.650305523952246e-249</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.00033078430098e-242</v>
+        <v>5.929407983024534e-249</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.237340724395191e-242</v>
+        <v>1.055230231300148e-248</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.789151472379717e-247</v>
+        <v>2.502847423106864e-247</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.173024516837977e-247</v>
+        <v>2.073950014719656e-247</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.760764988282965e-247</v>
+        <v>6.059043895831293e-247</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.421088248501935e-243</v>
+        <v>2.680166687699723e-248</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.475708396191361e-236</v>
+        <v>6.200160087376828e-200</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.861353184393301e-247</v>
+        <v>9.873991209344005e-249</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.800110376270497e-247</v>
+        <v>4.408965124477323e-249</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.815173929924069e-247</v>
+        <v>5.753750660328429e-249</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.84646747016091e-247</v>
+        <v>9.85779078887e-249</v>
       </c>
       <c r="BC4" t="n">
-        <v>5.552936737889224e-247</v>
+        <v>6.185761781795098e-245</v>
       </c>
       <c r="BD4" t="n">
-        <v>5.929637799206581e-247</v>
+        <v>5.998338074985221e-246</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.799834902703502e-247</v>
+        <v>1.78414602397651e-245</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.336770650414604e-241</v>
+        <v>3.375205607375512e-246</v>
       </c>
       <c r="BG4" t="n">
-        <v>6.340290781618953e-222</v>
+        <v>1.550081639618797e-237</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.646005687553017e-247</v>
+        <v>5.692935799276683e-247</v>
       </c>
       <c r="BI4" t="n">
-        <v>9.198757076241467e-244</v>
+        <v>2.413105122267668e-245</v>
       </c>
       <c r="BJ4" t="n">
-        <v>6.691084356920803e-246</v>
+        <v>7.341373714209672e-248</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.89959732484849e-245</v>
+        <v>2.033884348681243e-246</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.075962905029831e-246</v>
+        <v>4.462015816012148e-248</v>
       </c>
       <c r="BM4" t="n">
-        <v>4.510589967808337e-145</v>
+        <v>2.001525054726582e-146</v>
       </c>
       <c r="BN4" t="n">
-        <v>4.881867903581922e-120</v>
+        <v>1.47971320427055e-119</v>
       </c>
       <c r="BO4" t="n">
-        <v>3.261361304624401e-122</v>
+        <v>1.756068038059268e-122</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.266909917445149e-116</v>
+        <v>1.219597872337183e-116</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2.272222074279984e-167</v>
+        <v>2.001525054726582e-146</v>
       </c>
       <c r="BR4" t="n">
-        <v>7.483047897911671e-243</v>
+        <v>1.47971320427055e-119</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.651991285409025e-195</v>
+        <v>1.756068038059268e-122</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.487359707136103e-163</v>
+        <v>1.219597872337183e-116</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.802683123611694e-133</v>
+        <v>2.001525054726582e-146</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.240544228796298e-133</v>
+        <v>1.47971320427055e-119</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.26496928701318e-103</v>
+        <v>1.756068038059268e-122</v>
       </c>
       <c r="BX4" t="n">
-        <v>5.178511872702695e-132</v>
+        <v>1.219597872337183e-116</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.381794241061534e-168</v>
+        <v>6.94996682785902e-167</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3.725975304997598e-173</v>
+        <v>1.518669222283274e-242</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.233062475676935e-239</v>
+        <v>7.941214381065183e-195</v>
       </c>
       <c r="CB4" t="n">
-        <v>3.796719042292878e-217</v>
+        <v>1.974215707589945e-163</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.55190962779998e-195</v>
+        <v>1.167305427891272e-134</v>
       </c>
       <c r="CD4" t="n">
-        <v>7.773573573771111e-148</v>
+        <v>5.987965988337546e-134</v>
       </c>
       <c r="CE4" t="n">
-        <v>2.223743692975849e-117</v>
+        <v>7.677084295827279e-102</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.300937302960027e-137</v>
+        <v>1.096355264518994e-173</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.663433202772738e-135</v>
+        <v>1.605181209955008e-239</v>
       </c>
       <c r="CH4" t="n">
-        <v>2.051716238863625e-145</v>
+        <v>3.457959239968425e-217</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.421258873625523e-114</v>
+        <v>8.822030939207483e-196</v>
       </c>
       <c r="CJ4" t="n">
-        <v>8.520580192966041e-112</v>
+        <v>2.749131727587811e-148</v>
       </c>
       <c r="CK4" t="n">
-        <v>3.057217272904276e-112</v>
+        <v>9.280050347821026e-118</v>
       </c>
       <c r="CL4" t="n">
-        <v>1.788590495319932e-93</v>
+        <v>9.445419325894757e-137</v>
       </c>
       <c r="CM4" t="n">
-        <v>7.765742175331911e-168</v>
+        <v>2.009287623016224e-137</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.362159673134702e-224</v>
+        <v>1.888783744663058e-145</v>
       </c>
       <c r="CO4" t="n">
-        <v>2.914268820164242e-224</v>
+        <v>2.480466524775353e-114</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.854718041032834e-137</v>
+        <v>1.119286724291783e-107</v>
       </c>
       <c r="CQ4" t="n">
-        <v>6.528345393785388e-221</v>
+        <v>2.55065449998719e-111</v>
       </c>
       <c r="CR4" t="n">
-        <v>8.334987839660102e-197</v>
+        <v>3.855700184289052e-89</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.234490765970443e-137</v>
+        <v>7.142370364637682e-169</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.495579184735648e-198</v>
+        <v>1.288861854028988e-224</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.952338462547334e-208</v>
+        <v>2.587777955622838e-224</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.323705532705052e-115</v>
+        <v>8.847183848060277e-138</v>
       </c>
       <c r="CW4" t="n">
-        <v>5.619732889357412e-109</v>
+        <v>9.621202199468666e-221</v>
       </c>
       <c r="CX4" t="n">
-        <v>8.579019931102061e-165</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>7.69566775010409e-109</v>
-      </c>
+        <v>9.208944172024722e-197</v>
+      </c>
+      <c r="CY4" t="inlineStr"/>
       <c r="CZ4" t="n">
-        <v>1.120678647775631e-170</v>
+        <v>4.732329464771217e-137</v>
       </c>
       <c r="DA4" t="n">
-        <v>2.055262196382247e-185</v>
+        <v>1.545519116855349e-197</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.205749150843215e-140</v>
+        <v>5.801081814145864e-206</v>
       </c>
       <c r="DC4" t="n">
-        <v>3.408888042539226e-229</v>
+        <v>1.839425160752025e-110</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.937257745994846e-231</v>
+        <v>4.051683269576912e-117</v>
       </c>
       <c r="DE4" t="n">
-        <v>6.546057312847868e-222</v>
+        <v>2.968880808643277e-166</v>
       </c>
       <c r="DF4" t="n">
-        <v>9.413557289103028e-157</v>
+        <v>7.405905858981729e-109</v>
       </c>
       <c r="DG4" t="n">
-        <v>9.743336114005066e-225</v>
+        <v>1.915836570577734e-170</v>
       </c>
       <c r="DH4" t="n">
-        <v>3.605632046088591e-227</v>
+        <v>2.371467055093329e-185</v>
       </c>
       <c r="DI4" t="n">
-        <v>6.377066843416783e-213</v>
+        <v>6.306067604798554e-143</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.450366323179637e-158</v>
+        <v>5.591284899976473e-229</v>
       </c>
       <c r="DK4" t="n">
-        <v>7.743204720200496e-208</v>
+        <v>3.298146780179309e-231</v>
       </c>
       <c r="DL4" t="n">
-        <v>1.344472704665642e-219</v>
+        <v>2.136261952136707e-221</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.801234259791577e-207</v>
+        <v>1.058120488166738e-160</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.599207172293608e-149</v>
+        <v>3.629136006511084e-224</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.296457819328639e-188</v>
+        <v>6.217232766118274e-227</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.221520773734987e-188</v>
+        <v>1.115836872190781e-212</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.143587111342584e-175</v>
+        <v>3.700329872636e-159</v>
       </c>
       <c r="DR4" t="n">
-        <v>5.537341138075106e-164</v>
+        <v>5.654110062946712e-208</v>
       </c>
       <c r="DS4" t="n">
-        <v>3.228118169391505e-223</v>
+        <v>2.713304371057238e-219</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.642575328302614e-225</v>
+        <v>1.466158383072836e-206</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.685207802290134e-217</v>
+        <v>3.53540542175472e-150</v>
       </c>
       <c r="DV4" t="n">
-        <v>5.713968362584089e-157</v>
+        <v>6.056672383365715e-188</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.115882236025086e-203</v>
+        <v>7.311087019644061e-188</v>
       </c>
       <c r="DX4" t="n">
-        <v>4.232521260182585e-212</v>
+        <v>7.186900583497209e-175</v>
       </c>
       <c r="DY4" t="n">
-        <v>6.880776530216273e-192</v>
+        <v>9.543494596219334e-164</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.795165159300138e-133</v>
+        <v>4.758305211752018e-223</v>
       </c>
       <c r="EA4" t="n">
-        <v>2.486037365349955e-223</v>
+        <v>1.916816641900662e-225</v>
       </c>
       <c r="EB4" t="n">
-        <v>7.767663958634816e-218</v>
+        <v>7.636951740030203e-217</v>
       </c>
       <c r="EC4" t="n">
-        <v>3.341352927943087e-195</v>
+        <v>3.069734253190542e-160</v>
       </c>
       <c r="ED4" t="n">
-        <v>5.282390099012055e-139</v>
+        <v>1.302758826515898e-202</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.215744209667691e-217</v>
+        <v>5.947627415175677e-211</v>
       </c>
       <c r="EF4" t="n">
-        <v>8.415636172145738e-223</v>
+        <v>3.143477339834593e-190</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.622590793810018e-209</v>
+        <v>3.906677165418685e-135</v>
       </c>
       <c r="EH4" t="n">
-        <v>5.721005771334279e-138</v>
+        <v>6.067570225896722e-222</v>
       </c>
       <c r="EI4" t="n">
-        <v>6.45215515388609e-211</v>
+        <v>2.297945630669083e-215</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.468566128840976e-222</v>
+        <v>4.880292457054731e-192</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.943273377828932e-216</v>
+        <v>1.171395769594314e-142</v>
       </c>
       <c r="EL4" t="n">
-        <v>6.692823348852331e-159</v>
+        <v>1.496771467973424e-216</v>
       </c>
       <c r="EM4" t="n">
-        <v>3.20653763987081e-223</v>
+        <v>3.547858437234479e-222</v>
       </c>
       <c r="EN4" t="n">
-        <v>6.042271981244467e-227</v>
+        <v>1.325693761101711e-208</v>
       </c>
       <c r="EO4" t="n">
-        <v>4.017148743950051e-219</v>
+        <v>1.386049740977343e-138</v>
       </c>
       <c r="EP4" t="n">
-        <v>1.891862310525244e-152</v>
+        <v>1.074055024527889e-209</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.683717646365113e-221</v>
+        <v>2.916150573537576e-222</v>
       </c>
       <c r="ER4" t="n">
-        <v>4.50981371373704e-225</v>
+        <v>8.362350159840967e-216</v>
       </c>
       <c r="ES4" t="n">
-        <v>3.04768002034487e-212</v>
+        <v>3.54363850294489e-161</v>
       </c>
       <c r="ET4" t="n">
-        <v>6.769334463359786e-146</v>
+        <v>1.203476219977674e-222</v>
       </c>
       <c r="EU4" t="n">
-        <v>2.505359665780696e-199</v>
+        <v>1.776199573256357e-226</v>
       </c>
       <c r="EV4" t="n">
-        <v>6.819775522162826e-210</v>
+        <v>1.589172277264949e-218</v>
       </c>
       <c r="EW4" t="n">
-        <v>2.763741421327022e-200</v>
+        <v>2.08460798684084e-153</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.164245469652253e-98</v>
+        <v>2.807537465799032e-221</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.119603451221353e-150</v>
+        <v>6.80349022552475e-225</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3.148088725059956e-168</v>
+        <v>5.896822164908964e-212</v>
       </c>
       <c r="FA4" t="n">
-        <v>2.573909555046426e-178</v>
+        <v>1.70830075368386e-145</v>
       </c>
       <c r="FB4" t="n">
-        <v>2.139420797837642e-110</v>
+        <v>1.309852167439407e-197</v>
       </c>
       <c r="FC4" t="n">
-        <v>3.200269993814183e-194</v>
+        <v>3.539381496731592e-209</v>
       </c>
       <c r="FD4" t="n">
-        <v>2.304185790505092e-202</v>
+        <v>2.596294371933355e-199</v>
       </c>
       <c r="FE4" t="n">
-        <v>5.167915943214341e-193</v>
+        <v>1.344449808863303e-97</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.323988613215218e-144</v>
+        <v>7.399259489972507e-149</v>
       </c>
       <c r="FG4" t="n">
-        <v>5.34423236072673e-227</v>
+        <v>1.693311388196164e-167</v>
       </c>
       <c r="FH4" t="n">
-        <v>1.528860858546693e-222</v>
+        <v>2.204831563900355e-178</v>
       </c>
       <c r="FI4" t="n">
-        <v>6.659312230914212e-161</v>
+        <v>1.31901425183483e-111</v>
       </c>
       <c r="FJ4" t="n">
-        <v>8.849040546272831e-215</v>
+        <v>6.941600498821786e-194</v>
       </c>
       <c r="FK4" t="n">
-        <v>3.10230879852286e-206</v>
+        <v>2.909544652249777e-202</v>
       </c>
       <c r="FL4" t="n">
-        <v>2.552779833396753e-158</v>
+        <v>8.408273803633217e-193</v>
       </c>
       <c r="FM4" t="n">
-        <v>1.577911523163561e-210</v>
+        <v>1.472092707285922e-145</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.60966608951569e-206</v>
+        <v>6.425588693117272e-227</v>
       </c>
       <c r="FO4" t="n">
-        <v>5.460127382453658e-135</v>
+        <v>1.575448076993623e-222</v>
       </c>
       <c r="FP4" t="n">
-        <v>4.242272642974554e-231</v>
+        <v>1.728628077131574e-161</v>
       </c>
       <c r="FQ4" t="n">
-        <v>5.007281476453931e-224</v>
+        <v>1.335961439201881e-214</v>
       </c>
       <c r="FR4" t="n">
-        <v>3.594749179093605e-164</v>
+        <v>2.322453922140483e-206</v>
       </c>
       <c r="FS4" t="n">
-        <v>9.13572379148924e-216</v>
+        <v>1.765199437914591e-159</v>
       </c>
       <c r="FT4" t="n">
-        <v>2.089380723124532e-202</v>
+        <v>5.528967079022563e-210</v>
       </c>
       <c r="FU4" t="n">
-        <v>4.178332067344159e-169</v>
+        <v>1.575748725828631e-206</v>
       </c>
       <c r="FV4" t="n">
-        <v>1.832828531828861e-117</v>
+        <v>8.620153656544483e-137</v>
       </c>
       <c r="FW4" t="n">
-        <v>4.590377548344085e-117</v>
+        <v>4.595890915267298e-231</v>
       </c>
       <c r="FX4" t="n">
-        <v>9.898721089145039e-178</v>
+        <v>5.163897008741977e-224</v>
       </c>
       <c r="FY4" t="n">
-        <v>5.593382093900775e-189</v>
+        <v>4.118702665236788e-164</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.261978911338563e-182</v>
+        <v>9.525818875710315e-216</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.519037811586408e-151</v>
+        <v>1.363841947858415e-202</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.073999751702699e-130</v>
+        <v>5.971824330879937e-170</v>
       </c>
       <c r="GC4" t="n">
-        <v>1.326926680323352e-145</v>
+        <v>3.593338804522591e-117</v>
       </c>
       <c r="GD4" t="n">
-        <v>2.803592048818371e-151</v>
+        <v>4.039854624546107e-112</v>
       </c>
       <c r="GE4" t="n">
-        <v>1.559407257371315e-186</v>
+        <v>2.713021491800589e-177</v>
       </c>
       <c r="GF4" t="n">
-        <v>2.027128069424869e-165</v>
+        <v>2.957480660461935e-189</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.071232489027236e-155</v>
+        <v>3.033478563752908e-183</v>
       </c>
       <c r="GH4" t="n">
-        <v>9.208268985082648e-143</v>
+        <v>9.371737651169016e-150</v>
       </c>
       <c r="GI4" t="n">
-        <v>9.372432145314166e-149</v>
+        <v>7.133716165262742e-131</v>
       </c>
       <c r="GJ4" t="n">
-        <v>6.50183619800963e-133</v>
+        <v>1.080356889030407e-142</v>
       </c>
       <c r="GK4" t="n">
-        <v>2.525095689796914e-181</v>
+        <v>3.021445878070818e-149</v>
       </c>
       <c r="GL4" t="n">
-        <v>1.262170814678565e-180</v>
+        <v>2.40394919016817e-186</v>
       </c>
       <c r="GM4" t="n">
-        <v>2.115651626674483e-189</v>
+        <v>7.294276428211705e-165</v>
       </c>
       <c r="GN4" t="n">
-        <v>6.894739512458002e-167</v>
+        <v>3.567358201740798e-157</v>
       </c>
       <c r="GO4" t="n">
-        <v>9.65279772543093e-170</v>
+        <v>7.879010915898113e-140</v>
       </c>
       <c r="GP4" t="n">
-        <v>2.965486372345122e-137</v>
+        <v>6.910402045202268e-147</v>
       </c>
       <c r="GQ4" t="n">
-        <v>5.05146751377996e-148</v>
+        <v>3.825942373974534e-132</v>
       </c>
       <c r="GR4" t="n">
-        <v>4.190140182791741e-174</v>
+        <v>4.582100299282703e-180</v>
       </c>
       <c r="GS4" t="n">
-        <v>6.623949278011331e-190</v>
+        <v>8.503873010298085e-180</v>
       </c>
       <c r="GT4" t="n">
-        <v>1.763716099985159e-196</v>
+        <v>1.72265725954716e-154</v>
       </c>
       <c r="GU4" t="n">
-        <v>6.237073330840765e-153</v>
+        <v>9.122159028731262e-157</v>
       </c>
       <c r="GV4" t="n">
-        <v>1.155956927022521e-178</v>
+        <v>8.357526690820509e-129</v>
       </c>
       <c r="GW4" t="n">
-        <v>3.000753887108053e-155</v>
+        <v>3.495233000610671e-115</v>
       </c>
       <c r="GX4" t="n">
-        <v>4.014989162106153e-143</v>
+        <v>2.150008407553431e-163</v>
       </c>
       <c r="GY4" t="n">
-        <v>2.33764351588756e-214</v>
+        <v>1.748329751301116e-234</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1.239623117061221e-199</v>
+        <v>4.742412337600249e-230</v>
       </c>
       <c r="HA4" t="n">
-        <v>8.225276220664473e-169</v>
+        <v>3.540745509347599e-228</v>
       </c>
       <c r="HB4" t="n">
-        <v>2.166351942071731e-190</v>
+        <v>1.952071760108517e-174</v>
       </c>
       <c r="HC4" t="n">
-        <v>2.16337518066353e-186</v>
+        <v>4.578400464025183e-178</v>
       </c>
       <c r="HD4" t="n">
-        <v>7.6449464939441e-177</v>
+        <v>8.463524838005507e-157</v>
       </c>
       <c r="HE4" t="n">
-        <v>1.115095411728456e-166</v>
+        <v>4.648012136783808e-133</v>
       </c>
       <c r="HF4" t="n">
-        <v>1.118727821627005e-146</v>
+        <v>7.960409514408448e-181</v>
       </c>
       <c r="HG4" t="n">
-        <v>1.538799769516955e-176</v>
+        <v>4.908877853184315e-180</v>
       </c>
       <c r="HH4" t="n">
-        <v>7.53316897524751e-90</v>
+        <v>1.501446795785422e-189</v>
       </c>
       <c r="HI4" t="n">
-        <v>1.281242859985103e-137</v>
+        <v>1.739088160485378e-166</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2.608597844880377e-167</v>
+        <v>9.832091891087144e-170</v>
       </c>
       <c r="HK4" t="n">
-        <v>2.490294541548276e-190</v>
+        <v>2.570533002135241e-138</v>
       </c>
       <c r="HL4" t="n">
-        <v>4.483793974798293e-186</v>
+        <v>1.328828432546127e-147</v>
       </c>
       <c r="HM4" t="n">
-        <v>6.551583796960473e-161</v>
+        <v>6.436854465833046e-174</v>
       </c>
       <c r="HN4" t="n">
-        <v>2.810118613936661e-125</v>
+        <v>1.866631845577312e-189</v>
       </c>
       <c r="HO4" t="n">
-        <v>8.09042595464066e-162</v>
-      </c>
-      <c r="HP4" t="inlineStr"/>
-      <c r="HQ4" t="inlineStr"/>
-      <c r="HR4" t="inlineStr"/>
-      <c r="HS4" t="inlineStr"/>
-      <c r="HT4" t="inlineStr"/>
-      <c r="HU4" t="inlineStr"/>
-      <c r="HV4" t="inlineStr"/>
-      <c r="HW4" t="inlineStr"/>
+        <v>1.613076590809242e-196</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>3.332687006058835e-153</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1.082373082924545e-177</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>4.45272219118175e-154</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1.548982297713262e-135</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1.874086284536441e-140</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>5.461085315941158e-214</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1.127256826031628e-199</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>5.789298897724518e-169</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>9.495485019089685e-189</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2.281530271171013e-186</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1.524611134284466e-174</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>5.855791975143052e-164</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2.490579032880176e-145</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2.713455679272314e-177</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>4.049195902636464e-90</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>3.123527578399768e-137</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1.980528373296699e-167</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1.048784625261994e-188</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>4.735213274120458e-186</v>
+      </c>
+      <c r="II4" t="n">
+        <v>3.250361627952497e-163</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1.083697399392687e-122</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>3.018814318749811e-161</v>
+      </c>
+      <c r="IL4" t="inlineStr"/>
+      <c r="IM4" t="inlineStr"/>
+      <c r="IN4" t="inlineStr"/>
+      <c r="IO4" t="inlineStr"/>
+      <c r="IP4" t="inlineStr"/>
+      <c r="IQ4" t="inlineStr"/>
+      <c r="IR4" t="inlineStr"/>
+      <c r="IS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3605,669 +3907,733 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.309106551553334e-239</v>
+        <v>1.079725989895011e-235</v>
       </c>
       <c r="C5" t="n">
-        <v>8.36910277926812e-242</v>
+        <v>7.191732668481438e-236</v>
       </c>
       <c r="D5" t="n">
-        <v>1.295586446705695e-242</v>
+        <v>1.302749086034384e-240</v>
       </c>
       <c r="E5" t="n">
-        <v>5.899377802731291e-240</v>
+        <v>3.049287755272597e-241</v>
       </c>
       <c r="F5" t="n">
-        <v>1.646384165928064e-238</v>
+        <v>8.689487606410308e-239</v>
       </c>
       <c r="G5" t="n">
-        <v>5.039936524083348e-236</v>
+        <v>6.566123903190689e-237</v>
       </c>
       <c r="H5" t="n">
-        <v>9.659773233630708e-218</v>
+        <v>7.812830495785422e-220</v>
       </c>
       <c r="I5" t="n">
-        <v>3.128414945798415e-247</v>
+        <v>5.695403781839973e-247</v>
       </c>
       <c r="J5" t="n">
-        <v>1.48661247592033e-246</v>
+        <v>2.738864838100325e-246</v>
       </c>
       <c r="K5" t="n">
-        <v>2.634583047545632e-247</v>
+        <v>2.628733346539033e-247</v>
       </c>
       <c r="L5" t="n">
-        <v>2.627541706440677e-247</v>
+        <v>3.975134021997669e-247</v>
       </c>
       <c r="M5" t="n">
-        <v>2.635303354917931e-247</v>
+        <v>4.585878653473078e-247</v>
       </c>
       <c r="N5" t="n">
-        <v>1.605178324056149e-246</v>
+        <v>4.712020742574668e-247</v>
       </c>
       <c r="O5" t="n">
-        <v>6.071786551233052e-247</v>
+        <v>2.146854182535821e-247</v>
       </c>
       <c r="P5" t="n">
-        <v>4.106359649201726e-247</v>
+        <v>3.621853987350035e-247</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.190644615880135e-247</v>
+        <v>4.645770248311208e-247</v>
       </c>
       <c r="R5" t="n">
-        <v>3.016436138810581e-171</v>
+        <v>5.611652298281889e-247</v>
       </c>
       <c r="S5" t="n">
-        <v>5.018381034012194e-178</v>
+        <v>1.027491959265226e-170</v>
       </c>
       <c r="T5" t="n">
-        <v>2.97838922370369e-185</v>
+        <v>1.515350746633561e-179</v>
       </c>
       <c r="U5" t="n">
-        <v>1.922513644403451e-170</v>
+        <v>4.990401663736272e-188</v>
       </c>
       <c r="V5" t="n">
-        <v>1.634706950169967e-182</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
+        <v>5.613352156168986e-170</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.746577251099443e-185</v>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>2.628733346539033e-247</v>
-      </c>
+      <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>3.331052649515331e-247</v>
+        <v>6.165978160607726e-247</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>3.296789457726179e-230</v>
+        <v>4.520553402362563e-234</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.928684400056547e-156</v>
+        <v>3.611816493706858e-178</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.996082782942298e-245</v>
+        <v>3.577999700811465e-246</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.758459020748826e-244</v>
+        <v>3.479749066164691e-246</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.467729280861464e-245</v>
+        <v>1.192253290643336e-245</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.613460753051284e-244</v>
+        <v>3.750995352470873e-245</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.962533937133665e-245</v>
+        <v>2.209002376630459e-246</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.661508605539008e-244</v>
+        <v>2.354078125565819e-245</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.439572149823684e-245</v>
+        <v>3.282328392386905e-248</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.154125761389587e-235</v>
+        <v>1.185168968299797e-246</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.741849917628235e-239</v>
+        <v>2.249679838506265e-246</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.367801302204441e-247</v>
+        <v>4.940732348481706e-246</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.065826803674479e-241</v>
+        <v>1.208652464472958e-248</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.380967935475492e-242</v>
+        <v>1.627102990168121e-248</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.68977245335699e-242</v>
+        <v>8.321847363246409e-249</v>
       </c>
       <c r="AS5" t="n">
-        <v>8.176658808458495e-242</v>
+        <v>3.979999722491533e-248</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.538921398317536e-247</v>
+        <v>2.647582615270459e-244</v>
       </c>
       <c r="AU5" t="n">
-        <v>4.302236325558765e-247</v>
+        <v>3.948905816927219e-245</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.334767784632898e-247</v>
+        <v>9.28104421482025e-245</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.05695175235971e-243</v>
+        <v>2.762142374855289e-246</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.638376262192517e-247</v>
+        <v>7.905309044248384e-232</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.94488246303306e-247</v>
+        <v>9.960130536841142e-249</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.865886811243621e-247</v>
+        <v>4.470825840085916e-249</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.884125043664457e-247</v>
+        <v>5.838105569044596e-249</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.855930977809999e-247</v>
+        <v>1.020740059006246e-248</v>
       </c>
       <c r="BC5" t="n">
-        <v>6.758904916415874e-247</v>
+        <v>2.648727733803525e-246</v>
       </c>
       <c r="BD5" t="n">
-        <v>6.397542118817034e-247</v>
+        <v>1.478287512075771e-246</v>
       </c>
       <c r="BE5" t="n">
-        <v>3.03615704873113e-247</v>
+        <v>2.336705642970619e-246</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.671545395160406e-241</v>
+        <v>1.875416003026932e-246</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.1027908992888e-246</v>
+        <v>1.913350339725233e-245</v>
       </c>
       <c r="BH5" t="n">
-        <v>3.189143893522996e-247</v>
+        <v>4.57652673814145e-245</v>
       </c>
       <c r="BI5" t="n">
-        <v>5.468389905906194e-244</v>
+        <v>2.208218327861561e-245</v>
       </c>
       <c r="BJ5" t="n">
-        <v>5.025682293629488e-246</v>
+        <v>6.856766557307524e-248</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.940053422620768e-245</v>
+        <v>1.722931487923528e-246</v>
       </c>
       <c r="BL5" t="n">
-        <v>6.545559900794125e-247</v>
+        <v>3.727601100523082e-248</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.625609022832915e-117</v>
+        <v>1.006012816637535e-121</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.950602020275543e-116</v>
+        <v>6.742006949294162e-116</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.59971845306558e-107</v>
+        <v>3.77215116462141e-108</v>
       </c>
       <c r="BP5" t="n">
-        <v>4.590461011430389e-89</v>
+        <v>6.256924952135007e-90</v>
       </c>
       <c r="BQ5" t="n">
-        <v>7.71919737501071e-113</v>
+        <v>1.006012816637535e-121</v>
       </c>
       <c r="BR5" t="n">
-        <v>3.464214591118574e-240</v>
+        <v>6.742006949294162e-116</v>
       </c>
       <c r="BS5" t="n">
-        <v>7.322551621104973e-193</v>
+        <v>3.77215116462141e-108</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.019103586636638e-162</v>
+        <v>6.256924952135007e-90</v>
       </c>
       <c r="BU5" t="n">
-        <v>2.120979639223797e-133</v>
+        <v>1.006012816637535e-121</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.635636084321983e-132</v>
+        <v>6.742006949294162e-116</v>
       </c>
       <c r="BW5" t="n">
-        <v>3.812322617453725e-91</v>
+        <v>3.77215116462141e-108</v>
       </c>
       <c r="BX5" t="n">
-        <v>4.207857862659408e-130</v>
+        <v>6.256924952135007e-90</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.066468388212077e-167</v>
+        <v>9.474587552950637e-111</v>
       </c>
       <c r="BZ5" t="n">
-        <v>6.679172121264868e-182</v>
+        <v>7.623178418785422e-240</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.604384979017808e-239</v>
+        <v>1.585569367102306e-192</v>
       </c>
       <c r="CB5" t="n">
-        <v>5.601700896708959e-215</v>
+        <v>6.130920472312875e-163</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.337015741830301e-193</v>
+        <v>7.704177634311306e-134</v>
       </c>
       <c r="CD5" t="n">
-        <v>6.483362426161531e-151</v>
+        <v>1.31389106428092e-132</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.534352504582785e-117</v>
+        <v>1.031754534667938e-89</v>
       </c>
       <c r="CF5" t="n">
-        <v>9.469212218523793e-138</v>
+        <v>4.533741142505123e-181</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.24694925298596e-137</v>
+        <v>2.062164702148137e-239</v>
       </c>
       <c r="CH5" t="n">
-        <v>4.579410528554621e-141</v>
+        <v>4.470238446046445e-215</v>
       </c>
       <c r="CI5" t="n">
-        <v>3.418511582120279e-117</v>
+        <v>1.006218938093123e-193</v>
       </c>
       <c r="CJ5" t="n">
-        <v>2.540161739878966e-98</v>
+        <v>4.078909664309377e-151</v>
       </c>
       <c r="CK5" t="n">
-        <v>8.36844878068956e-107</v>
+        <v>6.44064102308114e-118</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.729089004469526e-90</v>
+        <v>3.938588127918242e-137</v>
       </c>
       <c r="CM5" t="n">
-        <v>6.923819565347104e-175</v>
+        <v>3.521855958556027e-139</v>
       </c>
       <c r="CN5" t="n">
-        <v>7.721501716766318e-230</v>
+        <v>3.718307016858179e-141</v>
       </c>
       <c r="CO5" t="n">
-        <v>2.12738091292353e-220</v>
+        <v>1.16453241826414e-116</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.019520639754448e-135</v>
+        <v>7.025459114773898e-95</v>
       </c>
       <c r="CQ5" t="n">
-        <v>4.854529122199214e-220</v>
+        <v>2.952142553239117e-106</v>
       </c>
       <c r="CR5" t="n">
-        <v>3.466010355211852e-195</v>
+        <v>5.966210839691428e-86</v>
       </c>
       <c r="CS5" t="n">
-        <v>4.240335563866039e-137</v>
+        <v>5.351555467207865e-176</v>
       </c>
       <c r="CT5" t="n">
-        <v>2.661419929733439e-159</v>
+        <v>8.790214984844444e-230</v>
       </c>
       <c r="CU5" t="n">
-        <v>3.189079917483695e-169</v>
+        <v>1.770822029156948e-220</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.799538929484561e-110</v>
+        <v>4.710443956977385e-136</v>
       </c>
       <c r="CW5" t="n">
-        <v>3.764124414271735e-100</v>
+        <v>7.117282982800893e-220</v>
       </c>
       <c r="CX5" t="n">
-        <v>5.510990054977366e-166</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>6.338167305175197e-109</v>
-      </c>
+        <v>3.784346093582009e-195</v>
+      </c>
+      <c r="CY5" t="inlineStr"/>
       <c r="CZ5" t="n">
-        <v>9.261696955626907e-172</v>
+        <v>1.677271469174133e-136</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.478159924488686e-187</v>
+        <v>1.376146846533945e-157</v>
       </c>
       <c r="DB5" t="n">
-        <v>3.348569586936303e-138</v>
+        <v>3.295769034087579e-168</v>
       </c>
       <c r="DC5" t="n">
-        <v>4.029211171740147e-229</v>
+        <v>8.252833000340781e-106</v>
       </c>
       <c r="DD5" t="n">
-        <v>3.058708171972634e-231</v>
+        <v>5.725427483682782e-108</v>
       </c>
       <c r="DE5" t="n">
-        <v>1.87614772406788e-221</v>
+        <v>4.055526395948714e-167</v>
       </c>
       <c r="DF5" t="n">
-        <v>4.74447047186329e-156</v>
+        <v>6.033255858649709e-109</v>
       </c>
       <c r="DG5" t="n">
-        <v>1.156432647693954e-224</v>
+        <v>1.596175087379316e-171</v>
       </c>
       <c r="DH5" t="n">
-        <v>5.994656383564007e-227</v>
+        <v>1.724419900793485e-187</v>
       </c>
       <c r="DI5" t="n">
-        <v>2.332287347127676e-212</v>
+        <v>9.798871029049465e-141</v>
       </c>
       <c r="DJ5" t="n">
-        <v>3.256307200382906e-154</v>
+        <v>6.624205393342069e-229</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.052847275287628e-207</v>
+        <v>5.254563561714466e-231</v>
       </c>
       <c r="DL5" t="n">
-        <v>2.621488196899205e-219</v>
+        <v>6.327007817663901e-221</v>
       </c>
       <c r="DM5" t="n">
-        <v>6.339895075100383e-207</v>
+        <v>4.367996341408e-160</v>
       </c>
       <c r="DN5" t="n">
-        <v>3.023952390797472e-150</v>
+        <v>4.328330524233974e-224</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.961098573441022e-188</v>
+        <v>1.041206597195812e-226</v>
       </c>
       <c r="DP5" t="n">
-        <v>4.174587268290682e-188</v>
+        <v>4.133800034549849e-212</v>
       </c>
       <c r="DQ5" t="n">
-        <v>5.391574327588012e-175</v>
+        <v>5.868733752335552e-155</v>
       </c>
       <c r="DR5" t="n">
-        <v>4.070127480175058e-162</v>
+        <v>7.678051778426967e-208</v>
       </c>
       <c r="DS5" t="n">
-        <v>4.420914139969742e-223</v>
+        <v>5.33697677780606e-219</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.08608389268287e-225</v>
+        <v>5.341609596787839e-206</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.059548806034368e-216</v>
+        <v>1.004268644635264e-150</v>
       </c>
       <c r="DV5" t="n">
-        <v>8.951233832909659e-155</v>
+        <v>9.226768561969188e-188</v>
       </c>
       <c r="DW5" t="n">
-        <v>1.489158028915191e-203</v>
+        <v>2.571759671444113e-187</v>
       </c>
       <c r="DX5" t="n">
-        <v>9.844369001066316e-212</v>
+        <v>3.449270774785751e-174</v>
       </c>
       <c r="DY5" t="n">
-        <v>5.433301649610497e-191</v>
+        <v>8.079757058099951e-162</v>
       </c>
       <c r="DZ5" t="n">
-        <v>2.860892168366813e-130</v>
+        <v>6.533805590580163e-223</v>
       </c>
       <c r="EA5" t="n">
-        <v>4.285917612423052e-223</v>
+        <v>4.789186533706122e-225</v>
       </c>
       <c r="EB5" t="n">
-        <v>2.11020748301451e-217</v>
+        <v>3.430108935017608e-216</v>
       </c>
       <c r="EC5" t="n">
-        <v>1.854965828361586e-194</v>
+        <v>2.484716657767436e-158</v>
       </c>
       <c r="ED5" t="n">
-        <v>1.509719237021892e-138</v>
+        <v>1.750112646356088e-202</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.71909236217938e-217</v>
+        <v>1.421276697332729e-210</v>
       </c>
       <c r="EF5" t="n">
-        <v>1.447716351373529e-222</v>
+        <v>2.657758179622655e-189</v>
       </c>
       <c r="EG5" t="n">
-        <v>4.180404249431393e-209</v>
+        <v>2.416714137479151e-132</v>
       </c>
       <c r="EH5" t="n">
-        <v>5.009410637238568e-134</v>
+        <v>1.083175929077547e-221</v>
       </c>
       <c r="EI5" t="n">
-        <v>8.646125208082178e-211</v>
+        <v>6.865384428658946e-215</v>
       </c>
       <c r="EJ5" t="n">
-        <v>2.827427729622014e-222</v>
+        <v>3.144675240505034e-191</v>
       </c>
       <c r="EK5" t="n">
-        <v>6.538005973236561e-216</v>
+        <v>3.041878231381427e-142</v>
       </c>
       <c r="EL5" t="n">
-        <v>3.51039787803935e-157</v>
+        <v>1.848076229877955e-216</v>
       </c>
       <c r="EM5" t="n">
-        <v>4.03092399272431e-223</v>
+        <v>6.203171580662916e-222</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.214498291928953e-226</v>
+        <v>3.519058783590522e-208</v>
       </c>
       <c r="EO5" t="n">
-        <v>1.756716574623683e-218</v>
+        <v>6.485139807808349e-135</v>
       </c>
       <c r="EP5" t="n">
-        <v>2.97690970278935e-151</v>
+        <v>1.454592589165886e-209</v>
       </c>
       <c r="EQ5" t="n">
-        <v>2.246302524232455e-221</v>
+        <v>5.667556842766675e-222</v>
       </c>
       <c r="ER5" t="n">
-        <v>9.842350960159014e-225</v>
+        <v>2.915440789199658e-215</v>
       </c>
       <c r="ES5" t="n">
-        <v>1.113269519651222e-211</v>
+        <v>1.314562035647161e-159</v>
       </c>
       <c r="ET5" t="n">
-        <v>7.927596719536949e-145</v>
+        <v>1.521797384353167e-222</v>
       </c>
       <c r="EU5" t="n">
-        <v>3.212433977342327e-199</v>
+        <v>3.643752564461959e-226</v>
       </c>
       <c r="EV5" t="n">
-        <v>1.344641032308312e-209</v>
+        <v>7.270366908185267e-218</v>
       </c>
       <c r="EW5" t="n">
-        <v>8.891186552759036e-200</v>
+        <v>2.921778895288153e-152</v>
       </c>
       <c r="EX5" t="n">
-        <v>3.227753226815808e-102</v>
+        <v>3.755885018793506e-221</v>
       </c>
       <c r="EY5" t="n">
-        <v>2.365375641899494e-150</v>
+        <v>1.496723337759176e-224</v>
       </c>
       <c r="EZ5" t="n">
-        <v>3.158342468235751e-167</v>
+        <v>2.187503995737173e-211</v>
       </c>
       <c r="FA5" t="n">
-        <v>2.144486314275142e-176</v>
+        <v>2.142695756056921e-144</v>
       </c>
       <c r="FB5" t="n">
-        <v>7.892624005268915e-109</v>
+        <v>1.693775834774285e-197</v>
       </c>
       <c r="FC5" t="n">
-        <v>4.396540471830791e-194</v>
+        <v>7.094753191336309e-209</v>
       </c>
       <c r="FD5" t="n">
-        <v>5.842381360500882e-202</v>
+        <v>8.73712627316456e-199</v>
       </c>
       <c r="FE5" t="n">
-        <v>3.623554056142785e-192</v>
+        <v>6.03190763505577e-101</v>
       </c>
       <c r="FF5" t="n">
-        <v>7.486949844211332e-144</v>
+        <v>1.597292185565178e-148</v>
       </c>
       <c r="FG5" t="n">
-        <v>1.029143128620345e-226</v>
+        <v>1.747744606448706e-166</v>
       </c>
       <c r="FH5" t="n">
-        <v>3.255176855757125e-222</v>
+        <v>1.762274246801286e-176</v>
       </c>
       <c r="FI5" t="n">
-        <v>3.198274543068479e-160</v>
+        <v>6.284006826829971e-111</v>
       </c>
       <c r="FJ5" t="n">
-        <v>5.038963515518559e-215</v>
+        <v>9.560228219285214e-194</v>
       </c>
       <c r="FK5" t="n">
-        <v>3.752902991286594e-207</v>
+        <v>7.395670705439649e-202</v>
       </c>
       <c r="FL5" t="n">
-        <v>3.867463345613822e-156</v>
+        <v>5.981040200725644e-192</v>
       </c>
       <c r="FM5" t="n">
-        <v>5.064525377424052e-212</v>
+        <v>9.528839599108836e-145</v>
       </c>
       <c r="FN5" t="n">
-        <v>3.060612960696564e-208</v>
+        <v>1.229701175432665e-226</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.003732583351915e-135</v>
+        <v>3.318700526227785e-222</v>
       </c>
       <c r="FP5" t="n">
-        <v>9.078684446196096e-231</v>
+        <v>1.281851041206911e-160</v>
       </c>
       <c r="FQ5" t="n">
-        <v>2.097874319313278e-223</v>
+        <v>7.567807080637347e-215</v>
       </c>
       <c r="FR5" t="n">
-        <v>5.745782854817094e-164</v>
+        <v>2.84909437734495e-207</v>
       </c>
       <c r="FS5" t="n">
-        <v>3.40150919840501e-215</v>
+        <v>4.108091449649598e-157</v>
       </c>
       <c r="FT5" t="n">
-        <v>5.319745331669541e-203</v>
+        <v>1.685387915405266e-211</v>
       </c>
       <c r="FU5" t="n">
-        <v>4.2024761253403e-166</v>
+        <v>3.026294519211772e-208</v>
       </c>
       <c r="FV5" t="n">
-        <v>1.688731700380731e-117</v>
+        <v>1.859324769206161e-137</v>
       </c>
       <c r="FW5" t="n">
-        <v>2.166161875708299e-116</v>
+        <v>9.738035434599195e-231</v>
       </c>
       <c r="FX5" t="n">
-        <v>4.720670282380556e-182</v>
+        <v>2.131729090536058e-223</v>
       </c>
       <c r="FY5" t="n">
-        <v>4.573231502215016e-191</v>
+        <v>9.833688803328699e-164</v>
       </c>
       <c r="FZ5" t="n">
-        <v>2.576411659141275e-186</v>
+        <v>3.501355984403076e-215</v>
       </c>
       <c r="GA5" t="n">
-        <v>3.009459801708863e-172</v>
+        <v>3.510853062200889e-203</v>
       </c>
       <c r="GB5" t="n">
-        <v>8.77360055980278e-126</v>
+        <v>5.903215483810695e-167</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.382737554428709e-162</v>
+        <v>3.353278883538624e-117</v>
       </c>
       <c r="GD5" t="n">
-        <v>2.218929489852785e-147</v>
+        <v>2.128979584453639e-111</v>
       </c>
       <c r="GE5" t="n">
-        <v>1.026353431899484e-200</v>
+        <v>2.386097431327353e-181</v>
       </c>
       <c r="GF5" t="n">
-        <v>7.223476026776804e-172</v>
+        <v>2.548723904358842e-191</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.725045730998684e-158</v>
+        <v>7.659748262320981e-187</v>
       </c>
       <c r="GH5" t="n">
-        <v>6.674900683003969e-143</v>
+        <v>8.282075623152434e-171</v>
       </c>
       <c r="GI5" t="n">
-        <v>2.419100116232283e-149</v>
+        <v>4.784775282608563e-126</v>
       </c>
       <c r="GJ5" t="n">
-        <v>1.282432012408275e-154</v>
+        <v>3.325555694290095e-160</v>
       </c>
       <c r="GK5" t="n">
-        <v>2.590580847679642e-179</v>
+        <v>3.502225607645019e-145</v>
       </c>
       <c r="GL5" t="n">
-        <v>1.212765428029453e-174</v>
+        <v>1.162584519068385e-200</v>
       </c>
       <c r="GM5" t="n">
-        <v>6.917770402441739e-171</v>
+        <v>1.947483839822009e-171</v>
       </c>
       <c r="GN5" t="n">
-        <v>1.36984973823152e-167</v>
+        <v>1.470720821969456e-159</v>
       </c>
       <c r="GO5" t="n">
-        <v>9.073118495478924e-180</v>
+        <v>5.275974489993864e-140</v>
       </c>
       <c r="GP5" t="n">
-        <v>1.2251323622639e-147</v>
+        <v>1.468531018498961e-147</v>
       </c>
       <c r="GQ5" t="n">
-        <v>1.812191472256632e-174</v>
+        <v>2.005052470208739e-138</v>
       </c>
       <c r="GR5" t="n">
-        <v>8.253450862233769e-174</v>
+        <v>8.195914170452946e-175</v>
       </c>
       <c r="GS5" t="n">
-        <v>7.79406947298113e-187</v>
+        <v>4.347749256921452e-165</v>
       </c>
       <c r="GT5" t="n">
-        <v>2.011462517216589e-181</v>
+        <v>6.498564196125345e-133</v>
       </c>
       <c r="GU5" t="n">
-        <v>1.298449756889098e-154</v>
+        <v>2.995740874924315e-158</v>
       </c>
       <c r="GV5" t="n">
-        <v>8.11009284471248e-191</v>
+        <v>3.48397311854795e-132</v>
       </c>
       <c r="GW5" t="n">
-        <v>1.906129698158707e-168</v>
+        <v>4.967814988219416e-128</v>
       </c>
       <c r="GX5" t="n">
-        <v>3.280263893461615e-140</v>
+        <v>6.325483771388585e-196</v>
       </c>
       <c r="GY5" t="n">
-        <v>5.753738429512453e-213</v>
+        <v>7.722285054668814e-232</v>
       </c>
       <c r="GZ5" t="n">
-        <v>1.655071132301288e-197</v>
+        <v>5.015109207604097e-225</v>
       </c>
       <c r="HA5" t="n">
-        <v>6.592162846527984e-162</v>
+        <v>2.747501245130491e-222</v>
       </c>
       <c r="HB5" t="n">
-        <v>1.34500525403473e-189</v>
+        <v>2.579439172400348e-175</v>
       </c>
       <c r="HC5" t="n">
-        <v>4.460509933838901e-187</v>
+        <v>5.330962532513376e-191</v>
       </c>
       <c r="HD5" t="n">
-        <v>9.262386557816045e-166</v>
+        <v>3.948076429826227e-170</v>
       </c>
       <c r="HE5" t="n">
-        <v>7.259873899272412e-171</v>
+        <v>2.616631161150102e-154</v>
       </c>
       <c r="HF5" t="n">
-        <v>1.853329593473624e-151</v>
+        <v>8.098567355387825e-179</v>
       </c>
       <c r="HG5" t="n">
-        <v>2.320938583228612e-164</v>
+        <v>3.480853094563391e-174</v>
       </c>
       <c r="HH5" t="n">
-        <v>1.971793985151419e-91</v>
+        <v>2.60614810013663e-171</v>
       </c>
       <c r="HI5" t="n">
-        <v>1.093343106677205e-137</v>
+        <v>3.508605452339109e-167</v>
       </c>
       <c r="HJ5" t="n">
-        <v>3.093669334386253e-160</v>
+        <v>1.074313761755435e-179</v>
       </c>
       <c r="HK5" t="n">
-        <v>8.742854840365646e-190</v>
+        <v>1.819513762519486e-148</v>
       </c>
       <c r="HL5" t="n">
-        <v>6.378094159549643e-187</v>
+        <v>5.153134168540395e-174</v>
       </c>
       <c r="HM5" t="n">
-        <v>4.185169922488695e-163</v>
+        <v>1.321043300039722e-173</v>
       </c>
       <c r="HN5" t="n">
-        <v>1.843682644415117e-125</v>
+        <v>1.756926984203836e-186</v>
       </c>
       <c r="HO5" t="n">
-        <v>2.143352069646538e-162</v>
-      </c>
-      <c r="HP5" t="inlineStr"/>
-      <c r="HQ5" t="inlineStr"/>
-      <c r="HR5" t="inlineStr"/>
-      <c r="HS5" t="inlineStr"/>
-      <c r="HT5" t="inlineStr"/>
-      <c r="HU5" t="inlineStr"/>
-      <c r="HV5" t="inlineStr"/>
-      <c r="HW5" t="inlineStr"/>
+        <v>1.39841781536937e-181</v>
+      </c>
+      <c r="HP5" t="n">
+        <v>8.97848277597717e-155</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>5.652552815258354e-190</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>1.768778102237125e-167</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>3.948889310779462e-163</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>1.42056874147783e-137</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>1.37358488218337e-212</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>1.464383244878368e-197</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>5.497311669068977e-162</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>5.807920126662269e-188</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>4.594634307308875e-187</v>
+      </c>
+      <c r="HZ5" t="n">
+        <v>5.963473303861432e-163</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>3.862341479211597e-168</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>6.897261882584458e-150</v>
+      </c>
+      <c r="IC5" t="n">
+        <v>2.9974938929488e-165</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>5.635665456485719e-92</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>1.918731267752529e-137</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>2.826530250543759e-160</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>3.573081957709221e-188</v>
+      </c>
+      <c r="IH5" t="n">
+        <v>6.606701187614947e-187</v>
+      </c>
+      <c r="II5" t="n">
+        <v>4.44934920413009e-165</v>
+      </c>
+      <c r="IJ5" t="n">
+        <v>6.877437417862986e-123</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>7.619906252881794e-162</v>
+      </c>
+      <c r="IL5" t="inlineStr"/>
+      <c r="IM5" t="inlineStr"/>
+      <c r="IN5" t="inlineStr"/>
+      <c r="IO5" t="inlineStr"/>
+      <c r="IP5" t="inlineStr"/>
+      <c r="IQ5" t="inlineStr"/>
+      <c r="IR5" t="inlineStr"/>
+      <c r="IS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -4276,669 +4642,733 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.516805847261176e-234</v>
+        <v>1.107703321717802e-230</v>
       </c>
       <c r="C6" t="n">
-        <v>9.298731845075793e-238</v>
+        <v>8.512751028646264e-227</v>
       </c>
       <c r="D6" t="n">
-        <v>5.15478168613122e-239</v>
+        <v>1.566346192655616e-236</v>
       </c>
       <c r="E6" t="n">
-        <v>7.418559836148915e-240</v>
+        <v>3.81853554501598e-241</v>
       </c>
       <c r="F6" t="n">
-        <v>1.812687551622694e-238</v>
+        <v>9.197072663516311e-239</v>
       </c>
       <c r="G6" t="n">
-        <v>1.318557963057308e-231</v>
+        <v>6.410763252478275e-233</v>
       </c>
       <c r="H6" t="n">
-        <v>8.90295715430364e-69</v>
+        <v>2.149524922094096e-57</v>
       </c>
       <c r="I6" t="n">
-        <v>2.849076565845192e-186</v>
+        <v>1.682171104167763e-185</v>
       </c>
       <c r="J6" t="n">
-        <v>5.348663102587332e-245</v>
+        <v>9.461328237100051e-245</v>
       </c>
       <c r="K6" t="n">
-        <v>1.476570648999774e-178</v>
+        <v>2.916704825362487e-230</v>
       </c>
       <c r="L6" t="n">
-        <v>1.678802522284038e-195</v>
+        <v>1.148483477042079e-180</v>
       </c>
       <c r="M6" t="n">
-        <v>4.081396117055454e-202</v>
+        <v>2.275505287581465e-199</v>
       </c>
       <c r="N6" t="n">
-        <v>1.039703539988999e-212</v>
+        <v>2.048928927523359e-199</v>
       </c>
       <c r="O6" t="n">
-        <v>2.117475372561764e-211</v>
+        <v>6.581034097012664e-187</v>
       </c>
       <c r="P6" t="n">
-        <v>1.45106143503258e-207</v>
+        <v>8.068708491636027e-186</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.459383004580731e-191</v>
+        <v>2.727459594575582e-185</v>
       </c>
       <c r="R6" t="n">
-        <v>3.680170733801679e-172</v>
+        <v>3.132222987225155e-185</v>
       </c>
       <c r="S6" t="n">
-        <v>1.66771642170198e-178</v>
+        <v>1.116086273780518e-171</v>
       </c>
       <c r="T6" t="n">
-        <v>2.065293589721984e-185</v>
+        <v>4.734412568169629e-180</v>
       </c>
       <c r="U6" t="n">
-        <v>8.762118430824247e-161</v>
+        <v>3.009381474454052e-188</v>
       </c>
       <c r="V6" t="n">
-        <v>2.29075400066492e-182</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
+        <v>1.453332268000994e-158</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.630720647723376e-184</v>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>2.916704825362487e-230</v>
-      </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>3.865033546492117e-247</v>
+        <v>7.157164832124285e-247</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>4.381701141358035e-216</v>
+        <v>4.520553402362563e-234</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.176381828595899e-159</v>
+        <v>1.150915410735669e-168</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.756791750401642e-244</v>
+        <v>6.836368025423326e-245</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.165775016270208e-232</v>
+        <v>1.862313317262398e-245</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.795533855055841e-244</v>
+        <v>2.531480051558187e-245</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.40807135205058e-244</v>
+        <v>5.918608504132103e-245</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.355354653240676e-244</v>
+        <v>1.911852828053377e-246</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.11780742033958e-187</v>
+        <v>3.080663363013811e-156</v>
       </c>
       <c r="AL6" t="n">
-        <v>4.599492247297039e-223</v>
+        <v>4.116626293377617e-233</v>
       </c>
       <c r="AM6" t="n">
-        <v>7.036325092603955e-236</v>
+        <v>1.187264832244146e-246</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.420700562526389e-239</v>
+        <v>2.511120248480645e-246</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.215182936173567e-247</v>
+        <v>7.701370898965899e-246</v>
       </c>
       <c r="AP6" t="n">
-        <v>5.573902631098121e-241</v>
+        <v>2.351767801343593e-248</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.520053959385327e-241</v>
+        <v>1.887781101543563e-248</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.895499514913061e-241</v>
+        <v>1.782312411955312e-248</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.715942528326021e-241</v>
+        <v>4.501503826049867e-248</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.9233840525923e-247</v>
+        <v>3.770039904244564e-244</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.257113666052609e-247</v>
+        <v>4.575068830849639e-245</v>
       </c>
       <c r="AV6" t="n">
-        <v>5.280861597656806e-247</v>
+        <v>1.600151711265165e-244</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.150049852635702e-244</v>
+        <v>3.430018324629087e-246</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.392475751240999e-214</v>
+        <v>9.283419299004543e-193</v>
       </c>
       <c r="AY6" t="n">
-        <v>3.093216187618456e-247</v>
+        <v>1.002249458921644e-248</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.981493419170037e-247</v>
+        <v>4.498125964474592e-249</v>
       </c>
       <c r="BA6" t="n">
-        <v>3.00594465947879e-247</v>
+        <v>5.883169805690056e-249</v>
       </c>
       <c r="BB6" t="n">
-        <v>3.088254090908693e-247</v>
+        <v>1.037005888736882e-248</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.631541495827653e-247</v>
+        <v>6.677889685915067e-245</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.290532106162261e-247</v>
+        <v>2.40796800434746e-245</v>
       </c>
       <c r="BE6" t="n">
-        <v>3.044007215554675e-247</v>
+        <v>1.194216961530343e-245</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.128985222749558e-241</v>
+        <v>9.455283811054359e-247</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.959777400254062e-206</v>
+        <v>8.845781443839977e-154</v>
       </c>
       <c r="BH6" t="n">
-        <v>4.522987559289801e-247</v>
+        <v>5.279205775283543e-245</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.933820669855402e-244</v>
+        <v>4.811663841997375e-246</v>
       </c>
       <c r="BJ6" t="n">
-        <v>4.514344328613576e-246</v>
+        <v>4.272419157582238e-248</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.588944163140322e-245</v>
+        <v>9.803536946395383e-247</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.005310578467853e-246</v>
+        <v>4.124913070928172e-248</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.684590220796559e-114</v>
+        <v>3.010867587165474e-119</v>
       </c>
       <c r="BN6" t="n">
-        <v>2.50831973688939e-112</v>
+        <v>1.277314550232417e-111</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.353768638413041e-99</v>
+        <v>1.438064210426095e-100</v>
       </c>
       <c r="BP6" t="n">
-        <v>4.080581563151557e-71</v>
+        <v>2.216827213983137e-74</v>
       </c>
       <c r="BQ6" t="n">
-        <v>5.005892853775557e-92</v>
+        <v>3.010867587165474e-119</v>
       </c>
       <c r="BR6" t="n">
-        <v>6.023670894054109e-210</v>
+        <v>1.277314550232417e-111</v>
       </c>
       <c r="BS6" t="n">
-        <v>7.49198717694482e-193</v>
+        <v>1.438064210426095e-100</v>
       </c>
       <c r="BT6" t="n">
-        <v>4.55251228928354e-162</v>
+        <v>2.216827213983137e-74</v>
       </c>
       <c r="BU6" t="n">
-        <v>9.162027899791237e-133</v>
+        <v>3.010867587165474e-119</v>
       </c>
       <c r="BV6" t="n">
-        <v>7.44610347561346e-132</v>
+        <v>1.277314550232417e-111</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.429666999986514e-74</v>
+        <v>1.438064210426095e-100</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.334144087843897e-128</v>
+        <v>2.216827213983137e-74</v>
       </c>
       <c r="BY6" t="n">
-        <v>5.833346765834355e-159</v>
+        <v>7.21971729319116e-88</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.170424025655049e-172</v>
+        <v>1.744103215881916e-209</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.56288125837878e-239</v>
+        <v>1.62073442975869e-192</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.886037305862547e-212</v>
+        <v>2.916194838677626e-162</v>
       </c>
       <c r="CC6" t="n">
-        <v>4.051918889753942e-193</v>
+        <v>1.581196158791349e-133</v>
       </c>
       <c r="CD6" t="n">
-        <v>9.899276326031682e-140</v>
+        <v>4.033585571898691e-132</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.398611046982686e-116</v>
+        <v>2.164084027467822e-76</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.598594513975065e-136</v>
+        <v>1.826211475371001e-173</v>
       </c>
       <c r="CG6" t="n">
-        <v>6.855874123932311e-136</v>
+        <v>2.007039934492245e-239</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.000685545137127e-133</v>
+        <v>1.718317406842772e-212</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.280358176695591e-113</v>
+        <v>1.566727129070741e-193</v>
       </c>
       <c r="CJ6" t="n">
-        <v>8.860408998113891e-95</v>
+        <v>1.386771824973707e-141</v>
       </c>
       <c r="CK6" t="n">
-        <v>4.786359410116452e-100</v>
+        <v>9.772276412360302e-117</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.643708641876862e-90</v>
+        <v>9.133976564644423e-136</v>
       </c>
       <c r="CM6" t="n">
-        <v>2.145889121442655e-156</v>
+        <v>4.373689705778918e-138</v>
       </c>
       <c r="CN6" t="n">
-        <v>2.943922311060583e-224</v>
+        <v>5.31866880932838e-134</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.000040862274699e-220</v>
+        <v>1.2422884043558e-113</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.905239845909315e-129</v>
+        <v>3.923650408920493e-93</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.803642848728992e-191</v>
+        <v>9.744234242046794e-101</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.129166252415452e-171</v>
+        <v>5.910021813547957e-86</v>
       </c>
       <c r="CS6" t="n">
-        <v>7.899400981234504e-138</v>
+        <v>8.185298483433626e-156</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.507609566258549e-74</v>
+        <v>2.717444524629162e-224</v>
       </c>
       <c r="CU6" t="n">
-        <v>9.482990173673049e-80</v>
+        <v>1.66765646675059e-220</v>
       </c>
       <c r="CV6" t="n">
-        <v>3.136523184991082e-98</v>
+        <v>1.134259857755387e-129</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.495762684090944e-90</v>
+        <v>1.918777368139931e-191</v>
       </c>
       <c r="CX6" t="n">
-        <v>4.671590044460298e-167</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>8.540603006591577e-109</v>
-      </c>
+        <v>1.280175448812665e-171</v>
+      </c>
+      <c r="CY6" t="inlineStr"/>
       <c r="CZ6" t="n">
-        <v>1.556252164136399e-141</v>
+        <v>3.722260627776167e-137</v>
       </c>
       <c r="DA6" t="n">
-        <v>5.336324050869696e-127</v>
+        <v>2.897940678861438e-78</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.82433542329476e-127</v>
+        <v>3.825546838434299e-82</v>
       </c>
       <c r="DC6" t="n">
-        <v>5.421341137505797e-189</v>
+        <v>2.332259715056302e-99</v>
       </c>
       <c r="DD6" t="n">
-        <v>5.923855493879323e-197</v>
+        <v>6.648283165322812e-93</v>
       </c>
       <c r="DE6" t="n">
-        <v>3.490089561120517e-195</v>
+        <v>1.974406250107522e-168</v>
       </c>
       <c r="DF6" t="n">
-        <v>2.502422040729719e-150</v>
+        <v>8.662534309468108e-109</v>
       </c>
       <c r="DG6" t="n">
-        <v>6.282534286156066e-144</v>
+        <v>1.515206791711668e-141</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.600053911416494e-153</v>
+        <v>6.979065185488088e-127</v>
       </c>
       <c r="DI6" t="n">
-        <v>3.790809036415792e-157</v>
+        <v>2.143740085086258e-131</v>
       </c>
       <c r="DJ6" t="n">
-        <v>5.622386040879646e-136</v>
+        <v>2.912649876495626e-188</v>
       </c>
       <c r="DK6" t="n">
-        <v>3.553909267133841e-157</v>
+        <v>4.641650377819347e-196</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.056186069700738e-146</v>
+        <v>7.922101712096714e-194</v>
       </c>
       <c r="DM6" t="n">
-        <v>2.111911592589921e-101</v>
+        <v>1.165121436063265e-154</v>
       </c>
       <c r="DN6" t="n">
+        <v>2.211896049937256e-142</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>3.26126184310519e-152</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>2.345604541644205e-156</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>3.770983133825688e-138</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>1.099488529497604e-156</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>4.630870024079297e-145</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>1.131937869703643e-98</v>
+      </c>
+      <c r="DU6" t="n">
         <v>1</v>
       </c>
-      <c r="DO6" t="n">
-        <v>1.096648742757549e-161</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>3.588500969854578e-166</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>2.836651673022973e-171</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>4.024420292006161e-146</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>1.860530316164875e-218</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>2.636887549023403e-220</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>3.449009446334789e-214</v>
-      </c>
       <c r="DV6" t="n">
-        <v>1.281052267315239e-148</v>
+        <v>3.117397604717056e-160</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.47588129121048e-160</v>
+        <v>1.735825616232012e-164</v>
       </c>
       <c r="DX6" t="n">
-        <v>7.400761630907399e-152</v>
+        <v>1.812440505588975e-170</v>
       </c>
       <c r="DY6" t="n">
-        <v>3.287693080610922e-153</v>
+        <v>5.084016523534366e-146</v>
       </c>
       <c r="DZ6" t="n">
-        <v>4.425183976594593e-125</v>
+        <v>3.036771755923727e-218</v>
       </c>
       <c r="EA6" t="n">
-        <v>2.083532339242329e-177</v>
+        <v>3.299645205833356e-220</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.975445126565456e-150</v>
+        <v>6.288169428371789e-214</v>
       </c>
       <c r="EC6" t="n">
-        <v>2.067962725805253e-160</v>
+        <v>4.673898571629827e-153</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.49529608476441e-138</v>
+        <v>1.343304888427612e-158</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.02457916511251e-181</v>
+        <v>2.781177609189695e-149</v>
       </c>
       <c r="EF6" t="n">
-        <v>2.939034023408469e-188</v>
+        <v>6.579803943774768e-151</v>
       </c>
       <c r="EG6" t="n">
-        <v>5.233456355511868e-197</v>
+        <v>3.26419526514067e-128</v>
       </c>
       <c r="EH6" t="n">
-        <v>3.465042626264056e-123</v>
+        <v>1.251579368127521e-173</v>
       </c>
       <c r="EI6" t="n">
-        <v>1.36183606726258e-157</v>
+        <v>2.691662574440445e-141</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.476216331829275e-153</v>
+        <v>5.065733976291667e-153</v>
       </c>
       <c r="EK6" t="n">
-        <v>7.208594078010634e-178</v>
+        <v>4.91183309576134e-142</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.004647119962488e-144</v>
+        <v>6.353424758585962e-180</v>
       </c>
       <c r="EM6" t="n">
-        <v>3.267111616806371e-212</v>
+        <v>9.895915071698429e-187</v>
       </c>
       <c r="EN6" t="n">
-        <v>4.204900068767927e-173</v>
+        <v>8.326031113213888e-196</v>
       </c>
       <c r="EO6" t="n">
-        <v>5.019770803539861e-163</v>
+        <v>1.347633054269349e-125</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.11617158657387e-144</v>
+        <v>3.478875440496229e-154</v>
       </c>
       <c r="EQ6" t="n">
-        <v>7.873838731234958e-199</v>
+        <v>3.181459859919502e-152</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.196963497635262e-203</v>
+        <v>4.215418164116893e-176</v>
       </c>
       <c r="ES6" t="n">
-        <v>3.772103009069542e-202</v>
+        <v>1.113217751052673e-147</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.319514812876273e-140</v>
+        <v>2.060645537391336e-211</v>
       </c>
       <c r="EU6" t="n">
-        <v>5.368972244235824e-172</v>
+        <v>3.564743446894137e-171</v>
       </c>
       <c r="EV6" t="n">
-        <v>3.437192701444812e-184</v>
+        <v>1.285064770148161e-160</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.819317234981512e-185</v>
+        <v>8.921703044678898e-146</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.263498726962604e-93</v>
+        <v>2.182611490778317e-198</v>
       </c>
       <c r="EY6" t="n">
-        <v>5.080284745760905e-119</v>
+        <v>2.958954466897404e-203</v>
       </c>
       <c r="EZ6" t="n">
-        <v>2.120455487074392e-103</v>
+        <v>9.203997294937487e-202</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.28985951452793e-79</v>
+        <v>3.561428772043872e-140</v>
       </c>
       <c r="FB6" t="n">
-        <v>6.133193617807847e-107</v>
+        <v>2.809521578984705e-169</v>
       </c>
       <c r="FC6" t="n">
-        <v>7.408324383945787e-137</v>
+        <v>1.138715582017267e-182</v>
       </c>
       <c r="FD6" t="n">
-        <v>5.423099616674619e-146</v>
+        <v>1.170005120715412e-183</v>
       </c>
       <c r="FE6" t="n">
-        <v>6.254228268545942e-150</v>
+        <v>4.157061110951178e-93</v>
       </c>
       <c r="FF6" t="n">
-        <v>1.372843584818534e-143</v>
+        <v>9.83543065379013e-116</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.38418550438526e-225</v>
+        <v>2.005539391015152e-99</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.031700588128332e-221</v>
+        <v>3.721125226534122e-77</v>
       </c>
       <c r="FI6" t="n">
-        <v>3.942723831651822e-160</v>
+        <v>9.667367549775469e-111</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.362176952772746e-214</v>
+        <v>2.31937627599643e-135</v>
       </c>
       <c r="FK6" t="n">
-        <v>2.272586032657247e-204</v>
+        <v>2.276804483940879e-145</v>
       </c>
       <c r="FL6" t="n">
-        <v>2.016890261261346e-155</v>
+        <v>1.34643777694727e-148</v>
       </c>
       <c r="FM6" t="n">
-        <v>3.035965241569788e-205</v>
+        <v>2.124834933440787e-144</v>
       </c>
       <c r="FN6" t="n">
-        <v>3.406897721320009e-204</v>
+        <v>3.878421273103211e-225</v>
       </c>
       <c r="FO6" t="n">
-        <v>8.748819197477871e-135</v>
+        <v>1.02817815221984e-221</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.430941663874968e-225</v>
+        <v>3.242908156493787e-160</v>
       </c>
       <c r="FQ6" t="n">
-        <v>5.819456163965878e-220</v>
+        <v>2.085724034742208e-214</v>
       </c>
       <c r="FR6" t="n">
-        <v>4.461939708361566e-164</v>
+        <v>1.712882453807069e-204</v>
       </c>
       <c r="FS6" t="n">
-        <v>2.398640236220568e-212</v>
+        <v>4.71004665594433e-156</v>
       </c>
       <c r="FT6" t="n">
-        <v>1.947558538276551e-200</v>
+        <v>1.410259874792277e-204</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.437981609194801e-141</v>
+        <v>3.449802898863817e-204</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.312554499442848e-117</v>
+        <v>1.129639248995236e-136</v>
       </c>
       <c r="FW6" t="n">
-        <v>6.515751857811206e-85</v>
+        <v>1.294562993595794e-225</v>
       </c>
       <c r="FX6" t="n">
-        <v>4.422869317200672e-159</v>
+        <v>5.34485754428114e-220</v>
       </c>
       <c r="FY6" t="n">
-        <v>4.710546199358536e-146</v>
+        <v>1.401836784409993e-163</v>
       </c>
       <c r="FZ6" t="n">
-        <v>4.258322939371747e-129</v>
+        <v>2.290789869985996e-212</v>
       </c>
       <c r="GA6" t="n">
-        <v>6.352568938300193e-126</v>
+        <v>1.278872224403546e-200</v>
       </c>
       <c r="GB6" t="n">
-        <v>5.866269120782976e-110</v>
+        <v>7.433824890138735e-141</v>
       </c>
       <c r="GC6" t="n">
-        <v>3.692238993952267e-125</v>
+        <v>4.215426563796009e-117</v>
       </c>
       <c r="GD6" t="n">
-        <v>3.097090169878246e-120</v>
+        <v>3.501289322860131e-82</v>
       </c>
       <c r="GE6" t="n">
-        <v>2.432038887950587e-135</v>
+        <v>1.085051185036991e-160</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.854945479959859e-106</v>
+        <v>2.297353310257024e-145</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.686930360583662e-155</v>
+        <v>4.970095939034981e-130</v>
       </c>
       <c r="GH6" t="n">
-        <v>2.816302378484198e-141</v>
+        <v>2.03721819929235e-125</v>
       </c>
       <c r="GI6" t="n">
-        <v>2.283587175407195e-146</v>
+        <v>3.236737348242984e-111</v>
       </c>
       <c r="GJ6" t="n">
-        <v>4.184643566911477e-127</v>
+        <v>2.625668646200744e-123</v>
       </c>
       <c r="GK6" t="n">
-        <v>4.586150774191714e-179</v>
+        <v>3.828321683247808e-117</v>
       </c>
       <c r="GL6" t="n">
-        <v>1.410536237138711e-174</v>
+        <v>9.993487887934988e-135</v>
       </c>
       <c r="GM6" t="n">
-        <v>1.8750974241249e-163</v>
+        <v>5.593046862329225e-105</v>
       </c>
       <c r="GN6" t="n">
-        <v>2.255332688919814e-164</v>
+        <v>3.69256246816905e-157</v>
       </c>
       <c r="GO6" t="n">
-        <v>5.841582423109251e-126</v>
+        <v>1.31249410355692e-137</v>
       </c>
       <c r="GP6" t="n">
-        <v>2.451401494865724e-119</v>
+        <v>9.157744040903421e-144</v>
       </c>
       <c r="GQ6" t="n">
-        <v>2.502878701745181e-79</v>
+        <v>2.419566586815976e-132</v>
       </c>
       <c r="GR6" t="n">
-        <v>1.058401039081657e-173</v>
+        <v>1.299708138318878e-172</v>
       </c>
       <c r="GS6" t="n">
-        <v>9.318873994607914e-187</v>
+        <v>1.71878085882509e-153</v>
       </c>
       <c r="GT6" t="n">
-        <v>5.877486239520529e-178</v>
+        <v>5.387121779319257e-119</v>
       </c>
       <c r="GU6" t="n">
-        <v>2.163834746453336e-144</v>
+        <v>1.430591231991651e-153</v>
       </c>
       <c r="GV6" t="n">
-        <v>1.049213770587622e-103</v>
+        <v>6.352306545438437e-128</v>
       </c>
       <c r="GW6" t="n">
-        <v>1.133066705187594e-97</v>
+        <v>2.360161545017101e-99</v>
       </c>
       <c r="GX6" t="n">
-        <v>3.551399752031775e-134</v>
+        <v>1.735515506701228e-142</v>
       </c>
       <c r="GY6" t="n">
-        <v>1.307972966362678e-198</v>
+        <v>1.395832247803553e-229</v>
       </c>
       <c r="GZ6" t="n">
-        <v>1.782326771832984e-184</v>
+        <v>4.614319879452172e-220</v>
       </c>
       <c r="HA6" t="n">
-        <v>5.171340528663021e-126</v>
+        <v>2.905828227875994e-214</v>
       </c>
       <c r="HB6" t="n">
-        <v>1.623472163912379e-189</v>
+        <v>5.209969555115588e-174</v>
       </c>
       <c r="HC6" t="n">
-        <v>1.741317500095026e-186</v>
+        <v>6.71177179136184e-150</v>
       </c>
       <c r="HD6" t="n">
-        <v>2.299238337986081e-157</v>
+        <v>1.909627817522463e-141</v>
       </c>
       <c r="HE6" t="n">
-        <v>6.449930965273264e-164</v>
+        <v>7.127855365913409e-128</v>
       </c>
       <c r="HF6" t="n">
-        <v>8.64805717795518e-147</v>
+        <v>1.448621305204749e-178</v>
       </c>
       <c r="HG6" t="n">
-        <v>2.139680876711053e-105</v>
+        <v>3.906597518852278e-174</v>
       </c>
       <c r="HH6" t="n">
-        <v>7.537734781314331e-90</v>
+        <v>4.960245426777582e-164</v>
       </c>
       <c r="HI6" t="n">
-        <v>8.74896708813755e-138</v>
+        <v>5.239502413518333e-164</v>
       </c>
       <c r="HJ6" t="n">
-        <v>9.03546222853273e-126</v>
+        <v>1.752368838604325e-125</v>
       </c>
       <c r="HK6" t="n">
-        <v>8.721200369810003e-190</v>
+        <v>6.697710614356394e-121</v>
       </c>
       <c r="HL6" t="n">
-        <v>3.500087669334036e-186</v>
+        <v>3.392495446397451e-80</v>
       </c>
       <c r="HM6" t="n">
-        <v>1.02468698297731e-151</v>
+        <v>1.669188012878608e-173</v>
       </c>
       <c r="HN6" t="n">
-        <v>3.865262821790723e-123</v>
+        <v>2.162766671485187e-186</v>
       </c>
       <c r="HO6" t="n">
-        <v>3.515264585702623e-146</v>
-      </c>
-      <c r="HP6" t="inlineStr"/>
-      <c r="HQ6" t="inlineStr"/>
-      <c r="HR6" t="inlineStr"/>
-      <c r="HS6" t="inlineStr"/>
-      <c r="HT6" t="inlineStr"/>
-      <c r="HU6" t="inlineStr"/>
-      <c r="HV6" t="inlineStr"/>
-      <c r="HW6" t="inlineStr"/>
+        <v>4.071728681443154e-178</v>
+      </c>
+      <c r="HP6" t="n">
+        <v>2.493025630151005e-146</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>4.599121399275783e-105</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>4.495758053603645e-96</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>3.580184781285186e-96</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>2.01757094938194e-132</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>3.979754635484863e-198</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>1.257456657594079e-184</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>1.793019088355373e-124</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>6.841426470425198e-188</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>1.850468470549393e-186</v>
+      </c>
+      <c r="HZ6" t="n">
+        <v>4.903519535135173e-155</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>2.041350345656277e-161</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>1.793816041145013e-145</v>
+      </c>
+      <c r="IC6" t="n">
+        <v>3.901080229895293e-105</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>4.229222315807632e-90</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>1.949002779636598e-137</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>2.886977777472802e-124</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>3.535232397739611e-188</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>3.733369895498524e-186</v>
+      </c>
+      <c r="II6" t="n">
+        <v>4.254253675775098e-156</v>
+      </c>
+      <c r="IJ6" t="n">
+        <v>2.524746688414407e-120</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>6.629142381843129e-144</v>
+      </c>
+      <c r="IL6" t="inlineStr"/>
+      <c r="IM6" t="inlineStr"/>
+      <c r="IN6" t="inlineStr"/>
+      <c r="IO6" t="inlineStr"/>
+      <c r="IP6" t="inlineStr"/>
+      <c r="IQ6" t="inlineStr"/>
+      <c r="IR6" t="inlineStr"/>
+      <c r="IS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5159,9 +5589,7 @@
       <c r="HD7" t="inlineStr"/>
       <c r="HE7" t="inlineStr"/>
       <c r="HF7" t="inlineStr"/>
-      <c r="HG7" t="n">
-        <v>4.706770558159669e-161</v>
-      </c>
+      <c r="HG7" t="inlineStr"/>
       <c r="HH7" t="inlineStr"/>
       <c r="HI7" t="inlineStr"/>
       <c r="HJ7" t="inlineStr"/>
@@ -5178,6 +5606,30 @@
       <c r="HU7" t="inlineStr"/>
       <c r="HV7" t="inlineStr"/>
       <c r="HW7" t="inlineStr"/>
+      <c r="HX7" t="inlineStr"/>
+      <c r="HY7" t="inlineStr"/>
+      <c r="HZ7" t="inlineStr"/>
+      <c r="IA7" t="inlineStr"/>
+      <c r="IB7" t="inlineStr"/>
+      <c r="IC7" t="n">
+        <v>5.415793610618714e-162</v>
+      </c>
+      <c r="ID7" t="inlineStr"/>
+      <c r="IE7" t="inlineStr"/>
+      <c r="IF7" t="inlineStr"/>
+      <c r="IG7" t="inlineStr"/>
+      <c r="IH7" t="inlineStr"/>
+      <c r="II7" t="inlineStr"/>
+      <c r="IJ7" t="inlineStr"/>
+      <c r="IK7" t="inlineStr"/>
+      <c r="IL7" t="inlineStr"/>
+      <c r="IM7" t="inlineStr"/>
+      <c r="IN7" t="inlineStr"/>
+      <c r="IO7" t="inlineStr"/>
+      <c r="IP7" t="inlineStr"/>
+      <c r="IQ7" t="inlineStr"/>
+      <c r="IR7" t="inlineStr"/>
+      <c r="IS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5186,669 +5638,733 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.9649844979941091</v>
+        <v>-1.107405713844978</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.025716517173265</v>
+        <v>-1.11316342512445</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.169609472611341</v>
+        <v>-1.188694093672584</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5901752499476614</v>
+        <v>0.585523511303918</v>
       </c>
       <c r="F8" t="n">
-        <v>0.547751568012255</v>
+        <v>0.5303471656196276</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04138504567573185</v>
+        <v>0.04015861741559087</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04877735670113632</v>
+        <v>0.03639647954687469</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01341380581563885</v>
+        <v>-0.01185084957206777</v>
       </c>
       <c r="J8" t="n">
-        <v>-534.7732040408561</v>
+        <v>-535.9078523102287</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.017531811223496</v>
+        <v>-0.5793455276150934</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.201786664618248</v>
+        <v>-0.9960669693358755</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.911370421297268</v>
+        <v>-1.150380691623279</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.07070093175608332</v>
+        <v>-1.153985634533751</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.06018539247163854</v>
+        <v>-0.01661889244631046</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.04936465218317638</v>
+        <v>-0.01496287927861772</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.02188932165372847</v>
+        <v>-0.01396457620045283</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5693466238263718</v>
+        <v>-0.0124834516572892</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5530556046288496</v>
+        <v>0.5743437461912648</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5248743995099459</v>
+        <v>0.5610295686307607</v>
       </c>
       <c r="U8" t="n">
-        <v>1.0776893264012</v>
+        <v>0.5407031209768625</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6662828326240898</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
+        <v>1.08810293004634</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6840351141466913</v>
+      </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>-0.5793455276150934</v>
-      </c>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
-        <v>0.08451074366495057</v>
+        <v>0.08147616998600932</v>
       </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>-12.439808445893</v>
+        <v>-17.7996316272635</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2960412866722548</v>
+        <v>0.154123830750576</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1085241751856881</v>
+        <v>0.1087205716634189</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.01075236848751423</v>
+        <v>-0.01328659851618503</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.3311915654520122</v>
+        <v>0.3309891096737307</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.3379295407864482</v>
+        <v>0.3390920157269356</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.01388406115857198</v>
+        <v>-0.01472239240350899</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.3802534863785895</v>
+        <v>-0.6140990895131134</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.225247946658267</v>
+        <v>-0.173495703160933</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.04054398161460186</v>
+        <v>0.4096057886931072</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.04331354048816841</v>
+        <v>0.6743233327822314</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.06077543921614989</v>
+        <v>1.002472632150761</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.940948777123285</v>
+        <v>3.803170889834143</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.118637019689012</v>
+        <v>0.2502237926648429</v>
       </c>
       <c r="AR8" t="n">
-        <v>3.362578540164536</v>
+        <v>3.003001998152538</v>
       </c>
       <c r="AS8" t="n">
-        <v>3.080786716289546</v>
+        <v>0.7157689092028958</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.261154699612776</v>
+        <v>0.2802896691828156</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.2616040981651443</v>
+        <v>0.6449024948232064</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.05735425368298126</v>
+        <v>0.8526318348648312</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.1830473495570547</v>
+        <v>0.2659267028635368</v>
       </c>
       <c r="AX8" t="n">
-        <v>-1.098358147741072</v>
+        <v>-0.09570292190216964</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.420798256156747</v>
+        <v>1.269046240560976</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.381428576171627</v>
+        <v>1.273588100390004</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.401734020028192</v>
+        <v>1.270464899601407</v>
       </c>
       <c r="BB8" t="n">
-        <v>19.58318586299719</v>
+        <v>1.270589466676743</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.06382033563241495</v>
+        <v>0.008882176352177095</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.02927371533748663</v>
+        <v>0.08043332431461553</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.1272703920787236</v>
+        <v>-0.06448231706314866</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.01102797477117471</v>
+        <v>-0.1026184197688889</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.2131514899366477</v>
+        <v>-0.6052998155841667</v>
       </c>
       <c r="BH8" t="n">
-        <v>4.675504075899358</v>
+        <v>0.4114940433560485</v>
       </c>
       <c r="BI8" t="n">
-        <v>-0.1749248636896454</v>
+        <v>-0.1745732078855553</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.1234743792985958</v>
+        <v>-0.1237419463588206</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.1318705328277173</v>
+        <v>-0.131803288044987</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.04354781547637249</v>
+        <v>-0.04369374695405111</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.6820537268794576</v>
+        <v>0.6948047792264154</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.689941484889237</v>
+        <v>1.715053888889801</v>
       </c>
       <c r="BO8" t="n">
-        <v>1.064985787916463</v>
+        <v>1.060692104673901</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.9602116334735861</v>
+        <v>0.9429744844402503</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.015612229353143</v>
+        <v>0.6948047792264154</v>
       </c>
       <c r="BR8" t="n">
-        <v>6.964670039938775</v>
+        <v>1.715053888889801</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.4556702652363337</v>
+        <v>1.060692104673901</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.2211538793904607</v>
+        <v>0.9429744844402503</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.2238588394946614</v>
+        <v>0.6948047792264154</v>
       </c>
       <c r="BV8" t="n">
-        <v>1.564924012217772</v>
+        <v>1.715053888889801</v>
       </c>
       <c r="BW8" t="n">
-        <v>1.543378714650316</v>
+        <v>1.060692104673901</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.26516307374639</v>
+        <v>0.9429744844402503</v>
       </c>
       <c r="BY8" t="n">
-        <v>10.05397211024065</v>
+        <v>1.011342383014097</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0.07586567446100879</v>
+        <v>6.939960612695663</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.3571985669478941</v>
+        <v>0.4562900009975963</v>
       </c>
       <c r="CB8" t="n">
-        <v>1.824604950147137</v>
+        <v>0.2086288898978723</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.6753403667535862</v>
+        <v>0.2911346545064518</v>
       </c>
       <c r="CD8" t="n">
-        <v>-1.606982035668985</v>
+        <v>1.602637715375075</v>
       </c>
       <c r="CE8" t="n">
-        <v>-14.16415267320885</v>
+        <v>1.429362675900441</v>
       </c>
       <c r="CF8" t="n">
-        <v>-7.511166677877192</v>
+        <v>-0.04630948403426768</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.1907521795323212</v>
+        <v>0.3458503228720795</v>
       </c>
       <c r="CH8" t="n">
-        <v>2.02168998369627</v>
+        <v>1.7936365623945</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0.5437021839948711</v>
+        <v>0.649459896705059</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.8589774450712504</v>
+        <v>-1.452969017761958</v>
       </c>
       <c r="CK8" t="n">
-        <v>1.671717406441114</v>
+        <v>-14.02388948509058</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.5555139407507445</v>
+        <v>-7.281469132050168</v>
       </c>
       <c r="CM8" t="n">
-        <v>-1.527605703360591</v>
+        <v>0.2708049815090338</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0.09613826747397856</v>
+        <v>2.013546432912206</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.5636860685200829</v>
+        <v>-0.469247525422291</v>
       </c>
       <c r="CP8" t="n">
-        <v>3.536751074237259</v>
+        <v>0.7332242317978868</v>
       </c>
       <c r="CQ8" t="n">
-        <v>28.27013697367988</v>
+        <v>1.562892751640443</v>
       </c>
       <c r="CR8" t="n">
-        <v>11.97888038675405</v>
+        <v>0.5130669401938145</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.817973534063797</v>
+        <v>-1.611268153663143</v>
       </c>
       <c r="CT8" t="n">
-        <v>1.528751749806725</v>
+        <v>-0.09483502462763573</v>
       </c>
       <c r="CU8" t="n">
-        <v>1.449948404017353</v>
+        <v>0.5662577354920284</v>
       </c>
       <c r="CV8" t="n">
-        <v>2.651180657248605</v>
+        <v>3.530891658261345</v>
       </c>
       <c r="CW8" t="n">
-        <v>1.531988084956611</v>
+        <v>28.32102841376316</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.7456376642669438</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>-0.3473855621895699</v>
-      </c>
+        <v>12.04241099014253</v>
+      </c>
+      <c r="CY8" t="inlineStr"/>
       <c r="CZ8" t="n">
-        <v>-19.37273563165231</v>
+        <v>0.7811941416123659</v>
       </c>
       <c r="DA8" t="n">
-        <v>-14.58390006224907</v>
+        <v>1.488113863866544</v>
       </c>
       <c r="DB8" t="n">
-        <v>4.238936356616185</v>
+        <v>1.461110736030726</v>
       </c>
       <c r="DC8" t="n">
-        <v>302.6226794429934</v>
+        <v>1.943939228244396</v>
       </c>
       <c r="DD8" t="n">
-        <v>95.01947462400273</v>
+        <v>1.820750139711116</v>
       </c>
       <c r="DE8" t="n">
-        <v>35.3248225813436</v>
+        <v>0.8463606597055505</v>
       </c>
       <c r="DF8" t="n">
-        <v>11.29773927728081</v>
+        <v>-0.5125953888228618</v>
       </c>
       <c r="DG8" t="n">
-        <v>461.7351401657803</v>
+        <v>-19.32567377260537</v>
       </c>
       <c r="DH8" t="n">
-        <v>144.492338346572</v>
+        <v>-14.65833086580325</v>
       </c>
       <c r="DI8" t="n">
-        <v>49.0615908815796</v>
+        <v>4.282653741891567</v>
       </c>
       <c r="DJ8" t="n">
-        <v>2.943595777783798</v>
+        <v>301.6852032335547</v>
       </c>
       <c r="DK8" t="n">
-        <v>251.6354440189393</v>
+        <v>94.67299923512162</v>
       </c>
       <c r="DL8" t="n">
-        <v>129.5837221303136</v>
+        <v>35.14080691844845</v>
       </c>
       <c r="DM8" t="n">
-        <v>68.45004029146533</v>
+        <v>12.28768845244973</v>
       </c>
       <c r="DN8" t="n">
-        <v>-4.817564506679726</v>
+        <v>454.8020069672102</v>
       </c>
       <c r="DO8" t="n">
-        <v>113.8786146746903</v>
+        <v>144.0481457094544</v>
       </c>
       <c r="DP8" t="n">
-        <v>33.09756473201871</v>
+        <v>48.89465047354208</v>
       </c>
       <c r="DQ8" t="n">
-        <v>5.601076600366795</v>
+        <v>2.894802995749884</v>
       </c>
       <c r="DR8" t="n">
-        <v>5.280125903520088</v>
+        <v>255.7402168474142</v>
       </c>
       <c r="DS8" t="n">
-        <v>32.89612889730874</v>
+        <v>128.8707023113169</v>
       </c>
       <c r="DT8" t="n">
-        <v>11.95770098674957</v>
+        <v>67.42305762264714</v>
       </c>
       <c r="DU8" t="n">
-        <v>4.088768208317146</v>
+        <v>-4.040565386622426</v>
       </c>
       <c r="DV8" t="n">
-        <v>4.200851855249476</v>
+        <v>114.3791885609304</v>
       </c>
       <c r="DW8" t="n">
-        <v>228.9278544613339</v>
+        <v>33.37749306974438</v>
       </c>
       <c r="DX8" t="n">
-        <v>91.99354828092656</v>
+        <v>5.519645287632923</v>
       </c>
       <c r="DY8" t="n">
-        <v>27.31874942349074</v>
+        <v>5.03999622661748</v>
       </c>
       <c r="DZ8" t="n">
-        <v>2.058207032425742</v>
+        <v>32.9045426223436</v>
       </c>
       <c r="EA8" t="n">
-        <v>108.3516421672392</v>
+        <v>11.96906083982796</v>
       </c>
       <c r="EB8" t="n">
-        <v>64.39503188070013</v>
+        <v>4.09711813270325</v>
       </c>
       <c r="EC8" t="n">
-        <v>24.9836538518935</v>
+        <v>4.471253234294378</v>
       </c>
       <c r="ED8" t="n">
-        <v>2.109375736406292</v>
+        <v>227.5067548524069</v>
       </c>
       <c r="EE8" t="n">
-        <v>268.9217858273913</v>
+        <v>90.86981899810925</v>
       </c>
       <c r="EF8" t="n">
-        <v>95.35841110348606</v>
+        <v>26.70203553207244</v>
       </c>
       <c r="EG8" t="n">
-        <v>24.69213709954594</v>
+        <v>2.066427797468527</v>
       </c>
       <c r="EH8" t="n">
-        <v>2.620286142757573</v>
+        <v>107.5700215659547</v>
       </c>
       <c r="EI8" t="n">
-        <v>261.5924629278347</v>
+        <v>63.84947546512292</v>
       </c>
       <c r="EJ8" t="n">
-        <v>116.8958935610991</v>
+        <v>24.70186639621166</v>
       </c>
       <c r="EK8" t="n">
-        <v>41.81872309473675</v>
+        <v>2.302370474108498</v>
       </c>
       <c r="EL8" t="n">
-        <v>7.067826887874258</v>
+        <v>267.1257058138472</v>
       </c>
       <c r="EM8" t="n">
-        <v>94.18332273927378</v>
+        <v>94.71048464552092</v>
       </c>
       <c r="EN8" t="n">
-        <v>89.76004869963691</v>
+        <v>24.42504734065611</v>
       </c>
       <c r="EO8" t="n">
-        <v>41.37522241179929</v>
+        <v>2.547976787113529</v>
       </c>
       <c r="EP8" t="n">
-        <v>6.154380958065301</v>
+        <v>259.7674054669196</v>
       </c>
       <c r="EQ8" t="n">
-        <v>131.9401053526352</v>
+        <v>116.4058649492831</v>
       </c>
       <c r="ER8" t="n">
-        <v>44.99844823270242</v>
+        <v>41.5194088635247</v>
       </c>
       <c r="ES8" t="n">
-        <v>14.73435776617405</v>
+        <v>7.310125686022197</v>
       </c>
       <c r="ET8" t="n">
-        <v>3.688771842839307</v>
+        <v>93.80143611875363</v>
       </c>
       <c r="EU8" t="n">
-        <v>193.9387010784978</v>
+        <v>89.00468611733844</v>
       </c>
       <c r="EV8" t="n">
-        <v>65.06809595584821</v>
+        <v>41.00918864053184</v>
       </c>
       <c r="EW8" t="n">
-        <v>23.10261640550127</v>
+        <v>6.331483542018415</v>
       </c>
       <c r="EX8" t="n">
-        <v>-1.342614739866771</v>
+        <v>131.863301714799</v>
       </c>
       <c r="EY8" t="n">
-        <v>68.34066568520242</v>
+        <v>44.92560227644385</v>
       </c>
       <c r="EZ8" t="n">
-        <v>34.51917223375077</v>
+        <v>14.68231460134621</v>
       </c>
       <c r="FA8" t="n">
-        <v>19.77201283249522</v>
+        <v>3.4803696824008</v>
       </c>
       <c r="FB8" t="n">
-        <v>1.566320539036489</v>
+        <v>193.6153512111925</v>
       </c>
       <c r="FC8" t="n">
-        <v>265.3082649974554</v>
+        <v>65.13205409318026</v>
       </c>
       <c r="FD8" t="n">
-        <v>89.64484595173377</v>
+        <v>23.29038351830609</v>
       </c>
       <c r="FE8" t="n">
-        <v>30.77276227568661</v>
+        <v>-1.215861080877779</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.9140895676245837</v>
+        <v>68.25296589753836</v>
       </c>
       <c r="FG8" t="n">
-        <v>5.819862087129723</v>
+        <v>34.73165261855245</v>
       </c>
       <c r="FH8" t="n">
-        <v>2.37795434027811</v>
+        <v>20.17477227224569</v>
       </c>
       <c r="FI8" t="n">
-        <v>1.313481170535377</v>
+        <v>0.8150051673416372</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-1.664534262598877</v>
+        <v>266.0141158213887</v>
       </c>
       <c r="FK8" t="n">
-        <v>-2.793975874495728</v>
+        <v>89.92899946189728</v>
       </c>
       <c r="FL8" t="n">
-        <v>1.111486324923256</v>
+        <v>30.96897481737516</v>
       </c>
       <c r="FM8" t="n">
-        <v>-3.629931884796255</v>
+        <v>1.012614525073631</v>
       </c>
       <c r="FN8" t="n">
-        <v>-1.604808914830615</v>
+        <v>5.803903413071402</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0.2682459169470768</v>
+        <v>2.362639983008442</v>
       </c>
       <c r="FP8" t="n">
-        <v>14.14560524272365</v>
+        <v>1.439061288304239</v>
       </c>
       <c r="FQ8" t="n">
-        <v>6.199911891795935</v>
+        <v>-1.683450031603245</v>
       </c>
       <c r="FR8" t="n">
-        <v>1.309817057351191</v>
+        <v>-2.814459761095716</v>
       </c>
       <c r="FS8" t="n">
-        <v>5.021877992481967</v>
+        <v>1.189730418564733</v>
       </c>
       <c r="FT8" t="n">
-        <v>-5.125180697127889</v>
+        <v>-3.655114125836598</v>
       </c>
       <c r="FU8" t="n">
-        <v>4.498305435982425</v>
+        <v>-1.620233536966903</v>
       </c>
       <c r="FV8" t="n">
-        <v>-3.868885355573645</v>
+        <v>-0.1542660453111365</v>
       </c>
       <c r="FW8" t="n">
-        <v>30.88280803439025</v>
+        <v>14.13434096716088</v>
       </c>
       <c r="FX8" t="n">
-        <v>-2.587099109811619</v>
+        <v>6.183791016912114</v>
       </c>
       <c r="FY8" t="n">
-        <v>-12.80457292440626</v>
+        <v>1.489958454886659</v>
       </c>
       <c r="FZ8" t="n">
-        <v>-6.381794656265471</v>
+        <v>5.019726864544956</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.8644190336788203</v>
+        <v>-5.141291616036494</v>
       </c>
       <c r="GB8" t="n">
-        <v>3.017739872573831</v>
+        <v>4.696636996521013</v>
       </c>
       <c r="GC8" t="n">
-        <v>-0.9346362292123989</v>
+        <v>-3.292616172364248</v>
       </c>
       <c r="GD8" t="n">
-        <v>5.686983890795203</v>
+        <v>27.30487253079643</v>
       </c>
       <c r="GE8" t="n">
-        <v>-1.586363551108599</v>
+        <v>-2.411107957442177</v>
       </c>
       <c r="GF8" t="n">
-        <v>-4.821488192474314</v>
+        <v>-13.10116099787497</v>
       </c>
       <c r="GG8" t="n">
-        <v>-0.1040328119207344</v>
+        <v>-6.511718690624126</v>
       </c>
       <c r="GH8" t="n">
-        <v>-9.451914992953888</v>
+        <v>-0.8254837172709137</v>
       </c>
       <c r="GI8" t="n">
-        <v>-3.552919710846759</v>
+        <v>2.986544579120621</v>
       </c>
       <c r="GJ8" t="n">
-        <v>-0.3055809524891883</v>
+        <v>-0.8724381936913296</v>
       </c>
       <c r="GK8" t="n">
-        <v>0.7000590528865979</v>
+        <v>5.415893603746602</v>
       </c>
       <c r="GL8" t="n">
-        <v>0.5621836584460617</v>
+        <v>-1.581832250363912</v>
       </c>
       <c r="GM8" t="n">
-        <v>1.030097679082938</v>
+        <v>-4.74716809986343</v>
       </c>
       <c r="GN8" t="n">
-        <v>-4.450633186888401</v>
+        <v>-0.004387660636536978</v>
       </c>
       <c r="GO8" t="n">
-        <v>-2.930792684436182</v>
+        <v>-11.03724557230944</v>
       </c>
       <c r="GP8" t="n">
-        <v>-1.477385081176449</v>
+        <v>-3.995188953534052</v>
       </c>
       <c r="GQ8" t="n">
-        <v>-1.152778942524605</v>
+        <v>0.037919656995052</v>
       </c>
       <c r="GR8" t="n">
-        <v>0.2335357439035927</v>
+        <v>1.109573726141097</v>
       </c>
       <c r="GS8" t="n">
-        <v>0.4066508751559567</v>
+        <v>1.412640624306072</v>
       </c>
       <c r="GT8" t="n">
-        <v>0.8656605717371144</v>
+        <v>1.102485346789557</v>
       </c>
       <c r="GU8" t="n">
-        <v>-5.262136128257752</v>
+        <v>-2.620352753629668</v>
       </c>
       <c r="GV8" t="n">
-        <v>-3.240291849027912</v>
+        <v>-0.8985505898323208</v>
       </c>
       <c r="GW8" t="n">
-        <v>-2.12285858838878</v>
+        <v>-1.070391983852091</v>
       </c>
       <c r="GX8" t="n">
-        <v>2.563594712748746</v>
+        <v>-0.5164246700990909</v>
       </c>
       <c r="GY8" t="n">
-        <v>9.578217327039617</v>
+        <v>1.539552952274261</v>
       </c>
       <c r="GZ8" t="n">
-        <v>6.536359018012711</v>
+        <v>1.688926962021058</v>
       </c>
       <c r="HA8" t="n">
-        <v>4.065265322036015</v>
+        <v>2.172895259511561</v>
       </c>
       <c r="HB8" t="n">
-        <v>0.7870179175807439</v>
+        <v>-1.056644430252243</v>
       </c>
       <c r="HC8" t="n">
-        <v>0.2395580349145428</v>
+        <v>-1.786510989359398</v>
       </c>
       <c r="HD8" t="n">
-        <v>1.014148939206505</v>
+        <v>-1.153230563039146</v>
       </c>
       <c r="HE8" t="n">
-        <v>-0.6776795239870222</v>
+        <v>-0.2834340518549743</v>
       </c>
       <c r="HF8" t="n">
-        <v>0.03575231512994944</v>
+        <v>0.706049827050701</v>
       </c>
       <c r="HG8" t="n">
-        <v>2.587165614694086</v>
+        <v>0.5509463382728425</v>
       </c>
       <c r="HH8" t="n">
-        <v>-0.01181771150526417</v>
+        <v>1.029597528096815</v>
       </c>
       <c r="HI8" t="n">
-        <v>0.5278030124089929</v>
+        <v>-4.404238007629449</v>
       </c>
       <c r="HJ8" t="n">
-        <v>3.933180903431559</v>
+        <v>-2.982667078292268</v>
       </c>
       <c r="HK8" t="n">
-        <v>0.6224757091555611</v>
+        <v>-1.487921362886728</v>
       </c>
       <c r="HL8" t="n">
-        <v>0.2032869685915351</v>
+        <v>-1.154502151012613</v>
       </c>
       <c r="HM8" t="n">
-        <v>-2.342807300176127</v>
+        <v>0.2426252519050494</v>
       </c>
       <c r="HN8" t="n">
-        <v>-14.47038292890013</v>
+        <v>0.399541308409818</v>
       </c>
       <c r="HO8" t="n">
-        <v>-20.67999177290741</v>
-      </c>
-      <c r="HP8" t="inlineStr"/>
-      <c r="HQ8" t="inlineStr"/>
-      <c r="HR8" t="inlineStr"/>
-      <c r="HS8" t="inlineStr"/>
-      <c r="HT8" t="inlineStr"/>
-      <c r="HU8" t="inlineStr"/>
-      <c r="HV8" t="inlineStr"/>
-      <c r="HW8" t="inlineStr"/>
+        <v>0.8692263636332987</v>
+      </c>
+      <c r="HP8" t="n">
+        <v>-4.719707097843702</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>-3.160169356508068</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>-2.09438048489449</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>-0.8705625357109723</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>2.370033968707439</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>9.568208019673865</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>6.521102524115395</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>4.107611203415156</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>0.7748214097654645</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>0.2318938295134083</v>
+      </c>
+      <c r="HZ8" t="n">
+        <v>0.9806927407604143</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>-0.6339198715296582</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>0.05142351772397894</v>
+      </c>
+      <c r="IC8" t="n">
+        <v>2.631222115300838</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>-0.0644542644888333</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>0.4981001187019398</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>3.972445183295322</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>0.6109458719942283</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>0.1961490157803888</v>
+      </c>
+      <c r="II8" t="n">
+        <v>-2.110462616117835</v>
+      </c>
+      <c r="IJ8" t="n">
+        <v>-14.83049966122903</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>-21.51032702365885</v>
+      </c>
+      <c r="IL8" t="inlineStr"/>
+      <c r="IM8" t="inlineStr"/>
+      <c r="IN8" t="inlineStr"/>
+      <c r="IO8" t="inlineStr"/>
+      <c r="IP8" t="inlineStr"/>
+      <c r="IQ8" t="inlineStr"/>
+      <c r="IR8" t="inlineStr"/>
+      <c r="IS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5918,7 +6434,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -5961,15 +6477,15 @@
           <t>none</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>+min+1</t>
-        </is>
-      </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr">
         <is>
           <t>+min+1</t>
@@ -6078,7 +6594,7 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>+1</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -6173,7 +6689,7 @@
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
@@ -6208,7 +6724,7 @@
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
@@ -6218,7 +6734,7 @@
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
@@ -6233,12 +6749,12 @@
       </c>
       <c r="CC9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
@@ -6248,12 +6764,12 @@
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
@@ -6328,7 +6844,7 @@
       </c>
       <c r="CV9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="CW9" t="inlineStr">
@@ -6338,17 +6854,13 @@
       </c>
       <c r="CX9" t="inlineStr">
         <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="CY9" t="inlineStr">
-        <is>
-          <t>+min+1</t>
-        </is>
-      </c>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="CY9" t="inlineStr"/>
       <c r="CZ9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="DA9" t="inlineStr">
@@ -6358,7 +6870,7 @@
       </c>
       <c r="DB9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="DC9" t="inlineStr">
@@ -6373,12 +6885,12 @@
       </c>
       <c r="DE9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="DF9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="DG9" t="inlineStr">
@@ -6393,12 +6905,12 @@
       </c>
       <c r="DI9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="DJ9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="DK9" t="inlineStr">
@@ -6413,12 +6925,12 @@
       </c>
       <c r="DM9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="DN9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="DO9" t="inlineStr">
@@ -6433,12 +6945,12 @@
       </c>
       <c r="DQ9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="DR9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="DS9" t="inlineStr">
@@ -6453,12 +6965,12 @@
       </c>
       <c r="DU9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="DV9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="DW9" t="inlineStr">
@@ -6473,12 +6985,12 @@
       </c>
       <c r="DY9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="DZ9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="EA9" t="inlineStr">
@@ -6493,12 +7005,12 @@
       </c>
       <c r="EC9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="ED9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="EE9" t="inlineStr">
@@ -6513,12 +7025,12 @@
       </c>
       <c r="EG9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="EH9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="EI9" t="inlineStr">
@@ -6533,12 +7045,12 @@
       </c>
       <c r="EK9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="EL9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="EM9" t="inlineStr">
@@ -6553,12 +7065,12 @@
       </c>
       <c r="EO9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="EP9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="EQ9" t="inlineStr">
@@ -6573,12 +7085,12 @@
       </c>
       <c r="ES9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="ET9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="EU9" t="inlineStr">
@@ -6593,12 +7105,12 @@
       </c>
       <c r="EW9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="EX9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="EY9" t="inlineStr">
@@ -6613,12 +7125,12 @@
       </c>
       <c r="FA9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="FB9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="FC9" t="inlineStr">
@@ -6633,12 +7145,12 @@
       </c>
       <c r="FE9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="FF9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="FG9" t="inlineStr">
@@ -6668,12 +7180,12 @@
       </c>
       <c r="FL9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="FM9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="FN9" t="inlineStr">
@@ -6683,12 +7195,12 @@
       </c>
       <c r="FO9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="FP9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="FQ9" t="inlineStr">
@@ -6698,12 +7210,12 @@
       </c>
       <c r="FR9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="FS9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="FT9" t="inlineStr">
@@ -6713,12 +7225,12 @@
       </c>
       <c r="FU9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="FV9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="FW9" t="inlineStr">
@@ -6728,12 +7240,12 @@
       </c>
       <c r="FX9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="FY9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="FZ9" t="inlineStr">
@@ -6743,17 +7255,17 @@
       </c>
       <c r="GA9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="GB9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="GC9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="GD9" t="inlineStr">
@@ -6773,12 +7285,12 @@
       </c>
       <c r="GG9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="GH9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="GI9" t="inlineStr">
@@ -6798,7 +7310,7 @@
       </c>
       <c r="GL9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="GM9" t="inlineStr">
@@ -6808,7 +7320,7 @@
       </c>
       <c r="GN9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="GO9" t="inlineStr">
@@ -6873,7 +7385,7 @@
       </c>
       <c r="HA9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="HB9" t="inlineStr">
@@ -6888,12 +7400,12 @@
       </c>
       <c r="HD9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="HE9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="HF9" t="inlineStr">
@@ -6903,7 +7415,7 @@
       </c>
       <c r="HG9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="HH9" t="inlineStr">
@@ -6918,7 +7430,7 @@
       </c>
       <c r="HJ9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="HK9" t="inlineStr">
@@ -6928,12 +7440,12 @@
       </c>
       <c r="HL9" t="inlineStr">
         <is>
-          <t>+min+1</t>
+          <t>none</t>
         </is>
       </c>
       <c r="HM9" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>+min+1</t>
         </is>
       </c>
       <c r="HN9" t="inlineStr">
@@ -6946,14 +7458,124 @@
           <t>+min+1</t>
         </is>
       </c>
-      <c r="HP9" t="inlineStr"/>
-      <c r="HQ9" t="inlineStr"/>
-      <c r="HR9" t="inlineStr"/>
-      <c r="HS9" t="inlineStr"/>
-      <c r="HT9" t="inlineStr"/>
-      <c r="HU9" t="inlineStr"/>
-      <c r="HV9" t="inlineStr"/>
-      <c r="HW9" t="inlineStr"/>
+      <c r="HP9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="HQ9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="HR9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="HS9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="HT9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="HU9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="HV9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="HW9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="HX9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="HY9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="HZ9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="IA9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="IB9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="IC9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="ID9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="IE9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="IF9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="IG9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="IH9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="II9" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="IJ9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="IK9" t="inlineStr">
+        <is>
+          <t>+min+1</t>
+        </is>
+      </c>
+      <c r="IL9" t="inlineStr"/>
+      <c r="IM9" t="inlineStr"/>
+      <c r="IN9" t="inlineStr"/>
+      <c r="IO9" t="inlineStr"/>
+      <c r="IP9" t="inlineStr"/>
+      <c r="IQ9" t="inlineStr"/>
+      <c r="IR9" t="inlineStr"/>
+      <c r="IS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7043,38 +7665,38 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>sqrt</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>sqrt</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>sqrt</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr"/>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr">
         <is>
           <t>none</t>
@@ -7083,982 +7705,1088 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>bc</t>
+          <t>none</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>ln</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>ln</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="BW10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BX10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CB10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CC10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="CJ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CK10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>ln</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CO10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CP10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr">
+        <is>
           <t>sqrt</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CT10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CU10" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
+      <c r="CV10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CW10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CX10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="CY10" t="inlineStr"/>
+      <c r="CZ10" t="inlineStr">
+        <is>
+          <t>sqrt</t>
+        </is>
+      </c>
+      <c r="DA10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DB10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DD10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DE10" t="inlineStr">
         <is>
           <t>ln</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
+      <c r="DF10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="DG10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DH10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DI10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DJ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DL10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DM10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DN10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DO10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DP10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DQ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DR10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DS10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DT10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DU10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DV10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DW10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DX10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DY10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="DZ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EA10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EB10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EC10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="ED10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EE10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EF10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EG10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EH10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EI10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EJ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EK10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="EL10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EM10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EN10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EO10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EP10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EQ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="ER10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="ES10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="ET10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EU10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EV10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EW10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EX10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EY10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="EZ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FA10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FB10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FC10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FD10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FE10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FF10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FG10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FH10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FI10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="FJ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FK10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FL10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FM10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="FN10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FO10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="FP10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="FQ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FR10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FS10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="FT10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FU10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FV10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FW10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FX10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="FY10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="FZ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GA10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GB10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GC10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="GD10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GE10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GF10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GG10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GH10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GI10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GJ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GK10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GL10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GM10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GN10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GO10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GP10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GQ10" t="inlineStr">
         <is>
           <t>ln</t>
         </is>
       </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BA10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BG10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BI10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BK10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BM10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BN10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BO10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BP10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BQ10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BR10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BS10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BT10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BU10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BV10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="BW10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BX10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BY10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="BZ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CA10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="CB10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CC10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="CD10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CE10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CF10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CG10" t="inlineStr">
+      <c r="GR10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="GS10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GT10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GU10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GV10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GW10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GX10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GY10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="GZ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HA10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HB10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HC10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HD10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HE10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HF10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="HG10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HH10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="HI10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HJ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HK10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HL10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HM10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HN10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HO10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HP10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HQ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HR10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HS10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HT10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HU10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HV10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HW10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="HX10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="HY10" t="inlineStr">
         <is>
           <t>ln</t>
         </is>
       </c>
-      <c r="CH10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CI10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CJ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CK10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CL10" t="inlineStr">
+      <c r="HZ10" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="IA10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="IB10" t="inlineStr">
+        <is>
+          <t>ln</t>
+        </is>
+      </c>
+      <c r="IC10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="ID10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="IE10" t="inlineStr">
+        <is>
+          <t>ln</t>
+        </is>
+      </c>
+      <c r="IF10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="IG10" t="inlineStr">
         <is>
           <t>sqrt</t>
         </is>
       </c>
-      <c r="CM10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CN10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CO10" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
-      <c r="CP10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CQ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CR10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CS10" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
-      <c r="CT10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CU10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CV10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CW10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="CX10" t="inlineStr">
+      <c r="IH10" t="inlineStr">
         <is>
           <t>ln</t>
         </is>
       </c>
-      <c r="CY10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="CZ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DA10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DB10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DC10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DD10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DE10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DF10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DG10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DH10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DI10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DJ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DK10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DL10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DM10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DN10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DO10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DP10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DQ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DR10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DS10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DT10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DU10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DV10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DW10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DX10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DY10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="DZ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EA10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EB10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EC10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="ED10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="EE10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EF10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EG10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EH10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EI10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EJ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EK10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EL10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EM10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EN10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EO10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EP10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EQ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="ER10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="ES10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="ET10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EU10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EV10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EW10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EX10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EY10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="EZ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FA10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FB10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FC10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FD10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FE10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FF10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="FG10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FH10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="FI10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="FJ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FK10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FL10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="FM10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FN10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FO10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FP10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FQ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FR10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="FS10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FT10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FU10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FV10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="FW10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FX10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FY10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="FZ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GA10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GB10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GC10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GD10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GE10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GF10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GG10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GH10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GI10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GJ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GK10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="GL10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GM10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="GN10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GO10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GP10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GQ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GR10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GS10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GT10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GU10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GV10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GW10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GX10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GY10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="GZ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HA10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HB10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="HC10" t="inlineStr">
-        <is>
-          <t>log10</t>
-        </is>
-      </c>
-      <c r="HD10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-      <c r="HE10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HF10" t="inlineStr">
-        <is>
-          <t>log10</t>
-        </is>
-      </c>
-      <c r="HG10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HH10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HI10" t="inlineStr">
-        <is>
-          <t>log10</t>
-        </is>
-      </c>
-      <c r="HJ10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HK10" t="inlineStr">
-        <is>
-          <t>sqrt</t>
-        </is>
-      </c>
-      <c r="HL10" t="inlineStr">
-        <is>
-          <t>log10</t>
-        </is>
-      </c>
-      <c r="HM10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HN10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HO10" t="inlineStr">
-        <is>
-          <t>bc</t>
-        </is>
-      </c>
-      <c r="HP10" t="inlineStr"/>
-      <c r="HQ10" t="inlineStr"/>
-      <c r="HR10" t="inlineStr"/>
-      <c r="HS10" t="inlineStr"/>
-      <c r="HT10" t="inlineStr"/>
-      <c r="HU10" t="inlineStr"/>
-      <c r="HV10" t="inlineStr"/>
-      <c r="HW10" t="inlineStr"/>
+      <c r="II10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="IJ10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="IK10" t="inlineStr">
+        <is>
+          <t>bc</t>
+        </is>
+      </c>
+      <c r="IL10" t="inlineStr"/>
+      <c r="IM10" t="inlineStr"/>
+      <c r="IN10" t="inlineStr"/>
+      <c r="IO10" t="inlineStr"/>
+      <c r="IP10" t="inlineStr"/>
+      <c r="IQ10" t="inlineStr"/>
+      <c r="IR10" t="inlineStr"/>
+      <c r="IS10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/transforms.xlsx
+++ b/transforms.xlsx
@@ -1859,9 +1859,7 @@
       <c r="BE2" t="n">
         <v>2.271950674955584e-246</v>
       </c>
-      <c r="BF2" t="n">
-        <v>1.860386314190429e-246</v>
-      </c>
+      <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="n">
         <v>1.894179925118584e-245</v>
       </c>
@@ -2594,9 +2592,7 @@
       <c r="BE3" t="n">
         <v>1.78414602397651e-245</v>
       </c>
-      <c r="BF3" t="n">
-        <v>3.375205607375512e-246</v>
-      </c>
+      <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="n">
         <v>1.550081639618797e-237</v>
       </c>
@@ -3329,9 +3325,7 @@
       <c r="BE4" t="n">
         <v>1.78414602397651e-245</v>
       </c>
-      <c r="BF4" t="n">
-        <v>3.375205607375512e-246</v>
-      </c>
+      <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="n">
         <v>1.550081639618797e-237</v>
       </c>
@@ -4064,9 +4058,7 @@
       <c r="BE5" t="n">
         <v>2.336705642970619e-246</v>
       </c>
-      <c r="BF5" t="n">
-        <v>1.875416003026932e-246</v>
-      </c>
+      <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="n">
         <v>1.913350339725233e-245</v>
       </c>
@@ -4799,9 +4791,7 @@
       <c r="BE6" t="n">
         <v>1.194216961530343e-245</v>
       </c>
-      <c r="BF6" t="n">
-        <v>9.455283811054359e-247</v>
-      </c>
+      <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="n">
         <v>8.845781443839977e-154</v>
       </c>
@@ -5795,9 +5785,7 @@
       <c r="BE8" t="n">
         <v>-0.06448231706314866</v>
       </c>
-      <c r="BF8" t="n">
-        <v>-0.1026184197688889</v>
-      </c>
+      <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="n">
         <v>-0.6052998155841667</v>
       </c>
@@ -6632,11 +6620,7 @@
           <t>+min+1</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>+min+1</t>
-        </is>
-      </c>
+      <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr">
         <is>
           <t>+min+1</t>
@@ -7843,11 +7827,7 @@
           <t>ln</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+      <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr">
         <is>
           <t>bc</t>
